--- a/dataset-2/2-with_data_augmentation/5-GENETIC/genetic_augmented_target=0.xlsx
+++ b/dataset-2/2-with_data_augmentation/5-GENETIC/genetic_augmented_target=0.xlsx
@@ -25,22 +25,22 @@
     <t>age</t>
   </si>
   <si>
-    <t>infection_department</t>
+    <t>evolution_time</t>
   </si>
   <si>
     <t>height</t>
   </si>
   <si>
-    <t>evolution_time</t>
-  </si>
-  <si>
     <t>number_active_injuries</t>
   </si>
   <si>
-    <t>ulcer_area</t>
+    <t>glucantime_dosage</t>
   </si>
   <si>
-    <t>glucantime_dosage</t>
+    <t>infection_department</t>
+  </si>
+  <si>
+    <t>ulcer_area</t>
   </si>
   <si>
     <t>cure_or_fail</t>
@@ -441,31 +441,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>0.2084262296817762</v>
+        <v>0.5019161858429162</v>
       </c>
       <c r="B2">
-        <v>0.9163394168714402</v>
+        <v>0.1120911100360709</v>
       </c>
       <c r="C2">
-        <v>0.5322754574507056</v>
+        <v>0.590568147130643</v>
       </c>
       <c r="D2">
-        <v>0.1709215896905156</v>
+        <v>0.04058895575551413</v>
       </c>
       <c r="E2">
-        <v>0.561140098393399</v>
+        <v>0.5862272202678925</v>
       </c>
       <c r="F2">
-        <v>0.01627186733288455</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G2">
-        <v>0.04973337626676444</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H2">
-        <v>0.02763005267046233</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I2">
-        <v>0.225585372402498</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -473,31 +473,31 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>0.442042981002056</v>
+        <v>0.5732524097773848</v>
       </c>
       <c r="B3">
-        <v>0.6314410519330085</v>
+        <v>0.3704577462882584</v>
       </c>
       <c r="C3">
-        <v>0.6200779949783108</v>
+        <v>0.1788148124473915</v>
       </c>
       <c r="D3">
-        <v>0.2405987026860922</v>
+        <v>0.05415500192138767</v>
       </c>
       <c r="E3">
-        <v>0.6604812363607511</v>
+        <v>0.6158687448832619</v>
       </c>
       <c r="F3">
-        <v>0.01747928459885095</v>
+        <v>0.04146400436122577</v>
       </c>
       <c r="G3">
-        <v>0.162372281471433</v>
+        <v>0.1549257747614103</v>
       </c>
       <c r="H3">
-        <v>0.02302153452550565</v>
+        <v>0.07538981780284237</v>
       </c>
       <c r="I3">
-        <v>0.2413500893790869</v>
+        <v>0.01782830777327971</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -505,31 +505,31 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.08426767732692542</v>
+        <v>0.9541595504328112</v>
       </c>
       <c r="B4">
-        <v>0.6664155065694668</v>
+        <v>0.267110708655972</v>
       </c>
       <c r="C4">
-        <v>0.1700074758462904</v>
+        <v>0.3766112647265045</v>
       </c>
       <c r="D4">
-        <v>0.4472113240577336</v>
+        <v>0.02004944108896778</v>
       </c>
       <c r="E4">
-        <v>0.4965136767480502</v>
+        <v>0.4861298197916663</v>
       </c>
       <c r="F4">
-        <v>0.1917795266724032</v>
+        <v>0.04509193071966855</v>
       </c>
       <c r="G4">
-        <v>0.08450768979111456</v>
+        <v>0.06756030095140717</v>
       </c>
       <c r="H4">
-        <v>0.02664418180830628</v>
+        <v>0.09081517700297093</v>
       </c>
       <c r="I4">
-        <v>0.279094986281843</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -537,31 +537,31 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>0.51443818242351</v>
+        <v>0.7866118113599389</v>
       </c>
       <c r="B5">
-        <v>0.7555670986447686</v>
+        <v>0.03873350551367871</v>
       </c>
       <c r="C5">
-        <v>0.5235255957810059</v>
+        <v>0.2270723042023425</v>
       </c>
       <c r="D5">
-        <v>0.2824185515710625</v>
+        <v>0.06241701601841632</v>
       </c>
       <c r="E5">
-        <v>0.3835943175643671</v>
+        <v>0.5654937763859008</v>
       </c>
       <c r="F5">
-        <v>0.180907506987801</v>
+        <v>0.2107256026320282</v>
       </c>
       <c r="G5">
-        <v>0.2104752907068461</v>
+        <v>0.176361531580753</v>
       </c>
       <c r="H5">
-        <v>0.03209865141542656</v>
+        <v>0.008499263450545858</v>
       </c>
       <c r="I5">
-        <v>0.2945329520662804</v>
+        <v>0.1390000457982228</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -569,31 +569,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>0.1983481394773174</v>
+        <v>0.6260442485326912</v>
       </c>
       <c r="B6">
-        <v>0.3078536809812891</v>
+        <v>0.1524608020646577</v>
       </c>
       <c r="C6">
-        <v>0.1246668796995947</v>
+        <v>0.3021047381743504</v>
       </c>
       <c r="D6">
-        <v>0.2356437399276441</v>
+        <v>0.05421062888491179</v>
       </c>
       <c r="E6">
-        <v>0.1923368585116967</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F6">
-        <v>0.05224180992152615</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G6">
-        <v>0.0338844960078758</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H6">
-        <v>3.651688377803943E-05</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I6">
-        <v>0.06114993478831453</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -601,31 +601,31 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>0.405777606398116</v>
+        <v>0.6244940355650223</v>
       </c>
       <c r="B7">
-        <v>0.4507787194184807</v>
+        <v>0.01071183128125408</v>
       </c>
       <c r="C7">
-        <v>0.3349341431880914</v>
+        <v>0.2286682097844891</v>
       </c>
       <c r="D7">
-        <v>0.2427065023477984</v>
+        <v>0.09583012414861103</v>
       </c>
       <c r="E7">
-        <v>0.2947071249034759</v>
+        <v>0.497757002023111</v>
       </c>
       <c r="F7">
-        <v>0.359753407987296</v>
+        <v>0.04033174506666493</v>
       </c>
       <c r="G7">
-        <v>0.1885857294003169</v>
+        <v>0.1321132662092281</v>
       </c>
       <c r="H7">
-        <v>0.05646007775292983</v>
+        <v>0.2552979934168801</v>
       </c>
       <c r="I7">
-        <v>0.2209093755998782</v>
+        <v>0.09403151217045547</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -633,31 +633,31 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>0.1871427861547866</v>
+        <v>0.7583107735194645</v>
       </c>
       <c r="B8">
-        <v>0.7499559959811845</v>
+        <v>0.2064902245125843</v>
       </c>
       <c r="C8">
-        <v>0.6029328579885783</v>
+        <v>0.5313982954169721</v>
       </c>
       <c r="D8">
-        <v>0.1944483187499576</v>
+        <v>0.06067417172711853</v>
       </c>
       <c r="E8">
-        <v>0.5045696718736301</v>
+        <v>0.5626534442519784</v>
       </c>
       <c r="F8">
-        <v>0.1580050852429159</v>
+        <v>0.1783164598138861</v>
       </c>
       <c r="G8">
-        <v>0.3741356360678864</v>
+        <v>0.1063371943177239</v>
       </c>
       <c r="H8">
-        <v>0.01411860023973435</v>
+        <v>0.2341248298915537</v>
       </c>
       <c r="I8">
-        <v>0.120791535419834</v>
+        <v>0.09632078131221722</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -665,31 +665,31 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>0.01305091863580632</v>
+        <v>0.9541595504328112</v>
       </c>
       <c r="B9">
-        <v>0.7669720031211439</v>
+        <v>0.267110708655972</v>
       </c>
       <c r="C9">
-        <v>0.5095926448607599</v>
+        <v>0.3766112647265045</v>
       </c>
       <c r="D9">
-        <v>0.104866164052493</v>
+        <v>0.02004944108896778</v>
       </c>
       <c r="E9">
-        <v>0.333907908684196</v>
+        <v>0.4861298197916663</v>
       </c>
       <c r="F9">
-        <v>0.4384619368775102</v>
+        <v>0.04509193071966855</v>
       </c>
       <c r="G9">
-        <v>0.07485672932950171</v>
+        <v>0.1135885516896711</v>
       </c>
       <c r="H9">
-        <v>0.04132301780873288</v>
+        <v>0.02014872047975425</v>
       </c>
       <c r="I9">
-        <v>0.5353494752890244</v>
+        <v>0.06321153161818116</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -697,31 +697,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>0.2063301918396508</v>
+        <v>0.7774509585749544</v>
       </c>
       <c r="B10">
-        <v>0.6409040907269727</v>
+        <v>0.06153047309879245</v>
       </c>
       <c r="C10">
-        <v>0.557621904931578</v>
+        <v>0.4131872388508168</v>
       </c>
       <c r="D10">
-        <v>0.195881974765088</v>
+        <v>0.04058895575551413</v>
       </c>
       <c r="E10">
-        <v>0.452321659760348</v>
+        <v>0.5862272202678925</v>
       </c>
       <c r="F10">
-        <v>0.3083007458622452</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G10">
-        <v>0.3800850739215325</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H10">
-        <v>0.01223837429327803</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I10">
-        <v>0.5253780228973559</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -729,31 +729,31 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>0.6621673551856171</v>
+        <v>0.5355216647497048</v>
       </c>
       <c r="B11">
-        <v>0.4748213140823155</v>
+        <v>0.05818452326696399</v>
       </c>
       <c r="C11">
-        <v>0.4123962873525203</v>
+        <v>0.2180286892131554</v>
       </c>
       <c r="D11">
-        <v>0.1807852576046431</v>
+        <v>0.0353698657494973</v>
       </c>
       <c r="E11">
-        <v>0.5936927725733021</v>
+        <v>0.4718743137858611</v>
       </c>
       <c r="F11">
-        <v>0.3096716967356258</v>
+        <v>0.04827042707159235</v>
       </c>
       <c r="G11">
-        <v>0.2412484101730661</v>
+        <v>0.04610385576183534</v>
       </c>
       <c r="H11">
-        <v>0.006357641190609839</v>
+        <v>0.3485042493037606</v>
       </c>
       <c r="I11">
-        <v>0.5573107184519634</v>
+        <v>0.1387143292807365</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -761,31 +761,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>0.2612085201711621</v>
+        <v>0.8175434564701466</v>
       </c>
       <c r="B12">
-        <v>0.2450901009220258</v>
+        <v>0.3065157231586138</v>
       </c>
       <c r="C12">
-        <v>0.3021302666387031</v>
+        <v>0.5635403706689414</v>
       </c>
       <c r="D12">
-        <v>0.2389433001564033</v>
+        <v>0.03972609433110563</v>
       </c>
       <c r="E12">
-        <v>0.3279277894990269</v>
+        <v>0.6804051274440162</v>
       </c>
       <c r="F12">
-        <v>0.004021080691277267</v>
+        <v>0.3833807742532708</v>
       </c>
       <c r="G12">
-        <v>0.4354145032384222</v>
+        <v>0.109139432334659</v>
       </c>
       <c r="H12">
-        <v>0.0565411787167635</v>
+        <v>0.2871819900762532</v>
       </c>
       <c r="I12">
-        <v>0.4791964354584461</v>
+        <v>0.06321153161818116</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -793,31 +793,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>0.3275440694719084</v>
+        <v>0.9154882306733495</v>
       </c>
       <c r="B13">
-        <v>0.5262552612384268</v>
+        <v>0.1486088862939657</v>
       </c>
       <c r="C13">
-        <v>0.2626828278842099</v>
+        <v>0.5494677396717638</v>
       </c>
       <c r="D13">
-        <v>0.08999877990313609</v>
+        <v>0.07258426278846708</v>
       </c>
       <c r="E13">
-        <v>0.2594048438849456</v>
+        <v>0.6746518604026394</v>
       </c>
       <c r="F13">
-        <v>0.08004537904292196</v>
+        <v>0.4477718343028149</v>
       </c>
       <c r="G13">
-        <v>0.2051851520895002</v>
+        <v>0.1380367198336127</v>
       </c>
       <c r="H13">
-        <v>0.03010883621843751</v>
+        <v>0.2579711525145595</v>
       </c>
       <c r="I13">
-        <v>0.5502096472588106</v>
+        <v>0.009383721226956965</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -825,31 +825,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>0.1316816256784511</v>
+        <v>0.8778168583087904</v>
       </c>
       <c r="B14">
-        <v>0.4773990210549118</v>
+        <v>0.1206541059955346</v>
       </c>
       <c r="C14">
-        <v>0.20057492598209</v>
+        <v>0.3021047381743504</v>
       </c>
       <c r="D14">
-        <v>0.04811246170213246</v>
+        <v>0.05421062888491179</v>
       </c>
       <c r="E14">
-        <v>0.3422231697411784</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F14">
-        <v>0.5527625983167554</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G14">
-        <v>0.2985655252576864</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H14">
-        <v>0.05593587779760633</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I14">
-        <v>0.657107050650083</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -857,31 +857,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>0.3223079136441174</v>
+        <v>0.9500376188353949</v>
       </c>
       <c r="B15">
-        <v>0.8352841809079579</v>
+        <v>0.4298408732522124</v>
       </c>
       <c r="C15">
-        <v>0.5331623269536427</v>
+        <v>0.2151136330260015</v>
       </c>
       <c r="D15">
-        <v>0.05970583438165056</v>
+        <v>0.04249292713786657</v>
       </c>
       <c r="E15">
-        <v>0.2424575902200567</v>
+        <v>0.4989845953434691</v>
       </c>
       <c r="F15">
-        <v>0.5857393638866571</v>
+        <v>0.4787335582435551</v>
       </c>
       <c r="G15">
-        <v>0.4392481709734056</v>
+        <v>0.09797698540553527</v>
       </c>
       <c r="H15">
-        <v>0.03184976865526577</v>
+        <v>0.2180567803390174</v>
       </c>
       <c r="I15">
-        <v>0.04659238142264987</v>
+        <v>0.06860629728809486</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -889,31 +889,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>0.0167161423085942</v>
+        <v>0.996665233694351</v>
       </c>
       <c r="B16">
-        <v>0.9474429363097698</v>
+        <v>0.1120911100360709</v>
       </c>
       <c r="C16">
-        <v>0.4436491340829435</v>
+        <v>0.590568147130643</v>
       </c>
       <c r="D16">
-        <v>0.2499188214619791</v>
+        <v>0.04058895575551413</v>
       </c>
       <c r="E16">
-        <v>0.5719703029763156</v>
+        <v>0.5862272202678925</v>
       </c>
       <c r="F16">
-        <v>0.02004887377723552</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G16">
-        <v>0.3713768831971745</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H16">
-        <v>0.05029258591886814</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I16">
-        <v>0.1076878865024962</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -921,31 +921,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>0.1339485135720466</v>
+        <v>0.4069629116868703</v>
       </c>
       <c r="B17">
-        <v>0.3388031743469248</v>
+        <v>0.4014075999007489</v>
       </c>
       <c r="C17">
-        <v>0.5246129728023817</v>
+        <v>0.05036392537385647</v>
       </c>
       <c r="D17">
-        <v>0.3774937906594648</v>
+        <v>0.07599650126532342</v>
       </c>
       <c r="E17">
-        <v>0.6546298779973784</v>
+        <v>0.570025294910979</v>
       </c>
       <c r="F17">
-        <v>0.5662992813962848</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G17">
-        <v>0.4361754924330492</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H17">
-        <v>0.05149081744021088</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I17">
-        <v>0.5406658679754262</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -953,31 +953,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>0.01239438331968101</v>
+        <v>0.4080756512476869</v>
       </c>
       <c r="B18">
-        <v>0.3742195977597906</v>
+        <v>0.2498249283085441</v>
       </c>
       <c r="C18">
-        <v>0.5505533398643101</v>
+        <v>0.173409053759234</v>
       </c>
       <c r="D18">
-        <v>0.02768713807701384</v>
+        <v>0.08267032763321802</v>
       </c>
       <c r="E18">
-        <v>0.4025329406400063</v>
+        <v>0.623324090834717</v>
       </c>
       <c r="F18">
-        <v>0.5373757443003083</v>
+        <v>0.1201508068121839</v>
       </c>
       <c r="G18">
-        <v>0.5083075569459413</v>
+        <v>0.1633576714497612</v>
       </c>
       <c r="H18">
-        <v>0.01636098767623407</v>
+        <v>0.339218082753281</v>
       </c>
       <c r="I18">
-        <v>0.1355231981283782</v>
+        <v>0.05447030345113346</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -985,31 +985,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>0.4582386031966601</v>
+        <v>0.4223408127393046</v>
       </c>
       <c r="B19">
-        <v>0.4316433787580554</v>
+        <v>0.3806437795349358</v>
       </c>
       <c r="C19">
-        <v>0.6351716582029389</v>
+        <v>0.4571782319718717</v>
       </c>
       <c r="D19">
-        <v>0.07569883089268736</v>
+        <v>0.05781224683602582</v>
       </c>
       <c r="E19">
-        <v>0.6987235793869806</v>
+        <v>0.5965545498778343</v>
       </c>
       <c r="F19">
-        <v>0.1607133034885655</v>
+        <v>0.171365163038391</v>
       </c>
       <c r="G19">
-        <v>0.1642430789820077</v>
+        <v>0.05967910840057466</v>
       </c>
       <c r="H19">
-        <v>0.03200284343890259</v>
+        <v>0.2818585477777035</v>
       </c>
       <c r="I19">
-        <v>0.4205582809517986</v>
+        <v>0.1185668238226066</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1017,31 +1017,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>0.571960076606262</v>
+        <v>0.8940033734753801</v>
       </c>
       <c r="B20">
-        <v>0.8063748949631779</v>
+        <v>0.1159571818233619</v>
       </c>
       <c r="C20">
-        <v>0.4841447508591507</v>
+        <v>0.2889849788235869</v>
       </c>
       <c r="D20">
-        <v>0.1813103122123241</v>
+        <v>0.009226439108837914</v>
       </c>
       <c r="E20">
-        <v>0.6438982230587939</v>
+        <v>0.6986787939350541</v>
       </c>
       <c r="F20">
-        <v>0.3310808463640002</v>
+        <v>0.171365163038391</v>
       </c>
       <c r="G20">
-        <v>0.3680026473666757</v>
+        <v>0.09196125866972892</v>
       </c>
       <c r="H20">
-        <v>0.05911570767294991</v>
+        <v>0.3477664681007134</v>
       </c>
       <c r="I20">
-        <v>0.0354823530073337</v>
+        <v>0.01782830777327971</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1049,31 +1049,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>0.3467625339860817</v>
+        <v>0.8175434564701466</v>
       </c>
       <c r="B21">
-        <v>0.6781520105314067</v>
+        <v>0.3065157231586138</v>
       </c>
       <c r="C21">
-        <v>0.1738086968482632</v>
+        <v>0.5635403706689414</v>
       </c>
       <c r="D21">
-        <v>0.01796484922845465</v>
+        <v>0.03972609433110563</v>
       </c>
       <c r="E21">
-        <v>0.6077452840058625</v>
+        <v>0.6804051274440162</v>
       </c>
       <c r="F21">
-        <v>0.206493088286006</v>
+        <v>0.4657594779208862</v>
       </c>
       <c r="G21">
-        <v>0.3987967160888034</v>
+        <v>0.09339819161578505</v>
       </c>
       <c r="H21">
-        <v>0.006210215274556983</v>
+        <v>0.3188166231195264</v>
       </c>
       <c r="I21">
-        <v>0.2604565791185932</v>
+        <v>0.08501138150038923</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1081,31 +1081,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>0.7159169876276725</v>
+        <v>0.8042296383831924</v>
       </c>
       <c r="B22">
-        <v>0.3195838486345659</v>
+        <v>0.2755525215896382</v>
       </c>
       <c r="C22">
-        <v>0.492466811092769</v>
+        <v>0.04749091978479558</v>
       </c>
       <c r="D22">
-        <v>0.08578806825992313</v>
+        <v>0.0857035733258491</v>
       </c>
       <c r="E22">
-        <v>0.4507917616830223</v>
+        <v>0.6233349799075227</v>
       </c>
       <c r="F22">
-        <v>0.3273727535936792</v>
+        <v>0.2856141139135869</v>
       </c>
       <c r="G22">
-        <v>0.1802175289274137</v>
+        <v>0.1771704358695389</v>
       </c>
       <c r="H22">
-        <v>0.06307336869127192</v>
+        <v>0.2180567803390174</v>
       </c>
       <c r="I22">
-        <v>0.05908698377634657</v>
+        <v>0.06860629728809486</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1113,31 +1113,31 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>0.1387432644551858</v>
+        <v>0.4223408127393046</v>
       </c>
       <c r="B23">
-        <v>0.4036401451987067</v>
+        <v>0.3806437795349358</v>
       </c>
       <c r="C23">
-        <v>0.1232352352512276</v>
+        <v>0.3312513142099067</v>
       </c>
       <c r="D23">
-        <v>0.3724472863448433</v>
+        <v>0.03558054101337693</v>
       </c>
       <c r="E23">
-        <v>0.4210005964639332</v>
+        <v>0.477757403816165</v>
       </c>
       <c r="F23">
-        <v>0.570148210900947</v>
+        <v>0.4148404410306499</v>
       </c>
       <c r="G23">
-        <v>0.4371293698181153</v>
+        <v>0.05645348943630885</v>
       </c>
       <c r="H23">
-        <v>0.02123023926898784</v>
+        <v>0.4380762462448965</v>
       </c>
       <c r="I23">
-        <v>0.2990055892619678</v>
+        <v>0.119812588214651</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1145,31 +1145,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>0.07400829608825898</v>
+        <v>0.6260442485326912</v>
       </c>
       <c r="B24">
-        <v>0.5309102765819368</v>
+        <v>0.1524608020646577</v>
       </c>
       <c r="C24">
-        <v>0.5821914858032859</v>
+        <v>0.3021047381743504</v>
       </c>
       <c r="D24">
-        <v>0.07140762361763675</v>
+        <v>0.05421062888491179</v>
       </c>
       <c r="E24">
-        <v>0.3371546093901691</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F24">
-        <v>0.2670546599871879</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G24">
-        <v>0.3495090258345276</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H24">
-        <v>0.04220164655705274</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I24">
-        <v>0.359982973899776</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1177,31 +1177,31 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>0.3081540454952375</v>
+        <v>0.5307710692136363</v>
       </c>
       <c r="B25">
-        <v>0.312771152899176</v>
+        <v>0.05119807938762522</v>
       </c>
       <c r="C25">
-        <v>0.3204220074294338</v>
+        <v>0.1537627775893052</v>
       </c>
       <c r="D25">
-        <v>0.1585372299411643</v>
+        <v>0.1048238581377843</v>
       </c>
       <c r="E25">
-        <v>0.4764201289058616</v>
+        <v>0.454077037657888</v>
       </c>
       <c r="F25">
-        <v>0.3120283193247337</v>
+        <v>0.4967283371385496</v>
       </c>
       <c r="G25">
-        <v>0.1614477434897468</v>
+        <v>0.1205499943448626</v>
       </c>
       <c r="H25">
-        <v>0.05132634112541729</v>
+        <v>0.07719909200634745</v>
       </c>
       <c r="I25">
-        <v>0.5951704910631094</v>
+        <v>0.09479963372778222</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1209,31 +1209,31 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>0.3291638183980733</v>
+        <v>0.4603890617277825</v>
       </c>
       <c r="B26">
-        <v>0.3849980641853704</v>
+        <v>0.02522869135569772</v>
       </c>
       <c r="C26">
-        <v>0.3186804916888137</v>
+        <v>0.5170510285995191</v>
       </c>
       <c r="D26">
-        <v>0.1958924640551224</v>
+        <v>0.0737841798468557</v>
       </c>
       <c r="E26">
-        <v>0.3325385122781174</v>
+        <v>0.4285868147398947</v>
       </c>
       <c r="F26">
-        <v>0.5156945645929835</v>
+        <v>0.04827042707159235</v>
       </c>
       <c r="G26">
-        <v>0.330873307926324</v>
+        <v>0.04610385576183534</v>
       </c>
       <c r="H26">
-        <v>0.02490509525989802</v>
+        <v>0.3485042493037606</v>
       </c>
       <c r="I26">
-        <v>0.1883175387354192</v>
+        <v>0.1387143292807365</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1241,31 +1241,31 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>0.43304232317594</v>
+        <v>0.8940033734753801</v>
       </c>
       <c r="B27">
-        <v>0.2956945965754694</v>
+        <v>0.1159571818233619</v>
       </c>
       <c r="C27">
-        <v>0.2385806421278674</v>
+        <v>0.2889849788235869</v>
       </c>
       <c r="D27">
-        <v>0.1666677679810289</v>
+        <v>0.009226439108837914</v>
       </c>
       <c r="E27">
-        <v>0.35075114883874</v>
+        <v>0.6986787939350541</v>
       </c>
       <c r="F27">
-        <v>0.2287816157383968</v>
+        <v>0.171365163038391</v>
       </c>
       <c r="G27">
-        <v>0.1724497685822001</v>
+        <v>0.09196125866972892</v>
       </c>
       <c r="H27">
-        <v>0.05111543061167564</v>
+        <v>0.3477664681007134</v>
       </c>
       <c r="I27">
-        <v>0.1099609111791096</v>
+        <v>0.01787251263120815</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1273,31 +1273,31 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>0.344912950968428</v>
+        <v>0.463608819435513</v>
       </c>
       <c r="B28">
-        <v>0.4234154136392146</v>
+        <v>0.2187517261715743</v>
       </c>
       <c r="C28">
-        <v>0.4870593513896423</v>
+        <v>0.5420762895465296</v>
       </c>
       <c r="D28">
-        <v>0.1709161819682035</v>
+        <v>0.04109515548694187</v>
       </c>
       <c r="E28">
-        <v>0.3140841306997539</v>
+        <v>0.6962662196254522</v>
       </c>
       <c r="F28">
-        <v>0.558237458417587</v>
+        <v>0.1395898766818142</v>
       </c>
       <c r="G28">
-        <v>0.3001310905490945</v>
+        <v>0.04608888048165261</v>
       </c>
       <c r="H28">
-        <v>0.03067970716056697</v>
+        <v>0.07406485853703026</v>
       </c>
       <c r="I28">
-        <v>0.414011226835688</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1305,31 +1305,31 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>0.5619996270896214</v>
+        <v>0.4223408127393046</v>
       </c>
       <c r="B29">
-        <v>0.4046793180591428</v>
+        <v>0.3806437795349358</v>
       </c>
       <c r="C29">
-        <v>0.650670022927506</v>
+        <v>0.3312513142099067</v>
       </c>
       <c r="D29">
-        <v>0.1328570161330149</v>
+        <v>0.03526675993823636</v>
       </c>
       <c r="E29">
-        <v>0.3702126059040092</v>
+        <v>0.3768594065214364</v>
       </c>
       <c r="F29">
-        <v>0.2625089200447456</v>
+        <v>0.4672051546174626</v>
       </c>
       <c r="G29">
-        <v>0.1061324976518402</v>
+        <v>0.1195961473809324</v>
       </c>
       <c r="H29">
-        <v>0.01906967002586363</v>
+        <v>0.1637638735949905</v>
       </c>
       <c r="I29">
-        <v>0.2489468594084387</v>
+        <v>0.06837779589193715</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1337,31 +1337,31 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>0.7283174865189882</v>
+        <v>0.9319966478582299</v>
       </c>
       <c r="B30">
-        <v>0.3779922722905187</v>
+        <v>0.08804000929810496</v>
       </c>
       <c r="C30">
-        <v>0.3075163213469194</v>
+        <v>0.3553190878636137</v>
       </c>
       <c r="D30">
-        <v>0.4534508606067819</v>
+        <v>0.04207889750919569</v>
       </c>
       <c r="E30">
-        <v>0.2820786371074452</v>
+        <v>0.6034064256030008</v>
       </c>
       <c r="F30">
-        <v>0.5538459148156322</v>
+        <v>0.1496880560055804</v>
       </c>
       <c r="G30">
-        <v>0.4289009627917845</v>
+        <v>0.1031780557329882</v>
       </c>
       <c r="H30">
-        <v>0.01941906948548597</v>
+        <v>0.1805851302873309</v>
       </c>
       <c r="I30">
-        <v>0.2831966473027863</v>
+        <v>0.09632078131221722</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1369,31 +1369,31 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>0.4846920021139947</v>
+        <v>0.4069629116868703</v>
       </c>
       <c r="B31">
-        <v>0.974254915880963</v>
+        <v>0.4014075999007489</v>
       </c>
       <c r="C31">
-        <v>0.2972988551592642</v>
+        <v>0.05036392537385647</v>
       </c>
       <c r="D31">
-        <v>0.3215813920914294</v>
+        <v>0.07599650126532342</v>
       </c>
       <c r="E31">
-        <v>0.3396827559201435</v>
+        <v>0.570025294910979</v>
       </c>
       <c r="F31">
-        <v>0.3380083026046997</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G31">
-        <v>0.1718183155583137</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H31">
-        <v>0.04327818263378693</v>
+        <v>0.1075457670982586</v>
       </c>
       <c r="I31">
-        <v>0.5361257015297688</v>
+        <v>0.007858637029658722</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1401,31 +1401,31 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>0.4166360741089519</v>
+        <v>0.9381041691038856</v>
       </c>
       <c r="B32">
-        <v>0.2370910789562665</v>
+        <v>0.4222077941777839</v>
       </c>
       <c r="C32">
-        <v>0.145231957723972</v>
+        <v>0.1033608378235069</v>
       </c>
       <c r="D32">
-        <v>0.2356761631338743</v>
+        <v>0.06620995811107921</v>
       </c>
       <c r="E32">
-        <v>0.2312944846687723</v>
+        <v>0.3894943245159051</v>
       </c>
       <c r="F32">
-        <v>0.6925672761051034</v>
+        <v>0.2970340362819299</v>
       </c>
       <c r="G32">
-        <v>0.2475345606866248</v>
+        <v>0.07200485558999538</v>
       </c>
       <c r="H32">
-        <v>0.01812741480179483</v>
+        <v>0.06807136107644329</v>
       </c>
       <c r="I32">
-        <v>0.268025071556779</v>
+        <v>0.1154971530575994</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1433,31 +1433,31 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>0.3877363259722429</v>
+        <v>0.9347627712048423</v>
       </c>
       <c r="B33">
-        <v>0.3845947209278369</v>
+        <v>0.2064902245125843</v>
       </c>
       <c r="C33">
-        <v>0.3221603941031083</v>
+        <v>0.5313982954169721</v>
       </c>
       <c r="D33">
-        <v>0.3241328605235793</v>
+        <v>0.06067417172711853</v>
       </c>
       <c r="E33">
-        <v>0.4303687646515003</v>
+        <v>0.5626534442519784</v>
       </c>
       <c r="F33">
-        <v>0.3934954043058984</v>
+        <v>0.1783164598138861</v>
       </c>
       <c r="G33">
-        <v>0.2609935841532472</v>
+        <v>0.1063371943177239</v>
       </c>
       <c r="H33">
-        <v>0.046343694209005</v>
+        <v>0.2341248298915537</v>
       </c>
       <c r="I33">
-        <v>0.6812561455985392</v>
+        <v>0.09632078131221722</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1465,31 +1465,31 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>0.00309834367480244</v>
+        <v>0.5539160831988204</v>
       </c>
       <c r="B34">
-        <v>0.8236904313393494</v>
+        <v>0.2261103824950021</v>
       </c>
       <c r="C34">
-        <v>0.1627178579600085</v>
+        <v>0.4487668744163918</v>
       </c>
       <c r="D34">
-        <v>0.4464815061277102</v>
+        <v>0.02573732153322483</v>
       </c>
       <c r="E34">
-        <v>0.3568693411435515</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F34">
-        <v>0.2048513034150969</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G34">
-        <v>0.1710608014545717</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H34">
-        <v>0.05925505028351526</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I34">
-        <v>0.4592936593310303</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1497,31 +1497,31 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>0.01291897962707322</v>
+        <v>0.6883931697521676</v>
       </c>
       <c r="B35">
-        <v>0.2578627106528546</v>
+        <v>0.2148796402518531</v>
       </c>
       <c r="C35">
-        <v>0.2659157709085072</v>
+        <v>0.1948329011147953</v>
       </c>
       <c r="D35">
-        <v>0.4428530521062521</v>
+        <v>0.1093631361288765</v>
       </c>
       <c r="E35">
-        <v>0.680251112692983</v>
+        <v>0.4047953009846466</v>
       </c>
       <c r="F35">
-        <v>0.4367284094478414</v>
+        <v>0.3838834097494934</v>
       </c>
       <c r="G35">
-        <v>0.08909279442741302</v>
+        <v>0.1395415878813417</v>
       </c>
       <c r="H35">
-        <v>0.05730423876396493</v>
+        <v>0.1931646106973784</v>
       </c>
       <c r="I35">
-        <v>0.4067952688838213</v>
+        <v>0.006449181865959108</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1529,31 +1529,31 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>0.03018279503001853</v>
+        <v>0.6165211169778876</v>
       </c>
       <c r="B36">
-        <v>0.7293477939329847</v>
+        <v>0.01320474776295155</v>
       </c>
       <c r="C36">
-        <v>0.3721701902465199</v>
+        <v>0.3021047381743504</v>
       </c>
       <c r="D36">
-        <v>0.1864492393144721</v>
+        <v>0.05421062888491179</v>
       </c>
       <c r="E36">
-        <v>0.5761725390896192</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F36">
-        <v>0.3885196846541498</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G36">
-        <v>0.350122815951628</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H36">
-        <v>0.01433760174446952</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I36">
-        <v>0.2199877909479882</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1561,31 +1561,31 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>0.5344514155615746</v>
+        <v>0.7356255959965999</v>
       </c>
       <c r="B37">
-        <v>0.5344966710796761</v>
+        <v>0.1981717801732644</v>
       </c>
       <c r="C37">
-        <v>0.6262173291018721</v>
+        <v>0.4561839957496583</v>
       </c>
       <c r="D37">
-        <v>0.332593105960275</v>
+        <v>0.08226121745953463</v>
       </c>
       <c r="E37">
-        <v>0.2509044474976256</v>
+        <v>0.4750533449634355</v>
       </c>
       <c r="F37">
-        <v>0.5827491045760234</v>
+        <v>0.2675317710639411</v>
       </c>
       <c r="G37">
-        <v>0.3179166476283776</v>
+        <v>0.06030711196725256</v>
       </c>
       <c r="H37">
-        <v>0.03750411626576153</v>
+        <v>0.03536266224194884</v>
       </c>
       <c r="I37">
-        <v>0.7389804103198935</v>
+        <v>0.005396044177465087</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1593,31 +1593,31 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>0.01606954389993709</v>
+        <v>0.8346923313312524</v>
       </c>
       <c r="B38">
-        <v>0.6576340232314287</v>
+        <v>0.3538601045967743</v>
       </c>
       <c r="C38">
-        <v>0.5278120734068015</v>
+        <v>0.4133192831100679</v>
       </c>
       <c r="D38">
-        <v>0.4520736161079857</v>
+        <v>0.04567876041262076</v>
       </c>
       <c r="E38">
-        <v>0.5530089596160299</v>
+        <v>0.4426315932364452</v>
       </c>
       <c r="F38">
-        <v>0.3769737324642572</v>
+        <v>0.3111079616811983</v>
       </c>
       <c r="G38">
-        <v>0.5226049129682404</v>
+        <v>0.1276140194273054</v>
       </c>
       <c r="H38">
-        <v>0.06052942807809398</v>
+        <v>0.319151436072962</v>
       </c>
       <c r="I38">
-        <v>0.3861113490402781</v>
+        <v>0.1112976015159359</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1625,31 +1625,31 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>0.5643821919881326</v>
+        <v>0.7749296852858095</v>
       </c>
       <c r="B39">
-        <v>0.4945999250655485</v>
+        <v>0.2158195866072422</v>
       </c>
       <c r="C39">
-        <v>0.1277868134859062</v>
+        <v>0.3468517587206357</v>
       </c>
       <c r="D39">
-        <v>0.4111840212246063</v>
+        <v>0.09304536359331106</v>
       </c>
       <c r="E39">
-        <v>0.300549485299835</v>
+        <v>0.430133917741657</v>
       </c>
       <c r="F39">
-        <v>0.01563894990769565</v>
+        <v>0.2901657196282897</v>
       </c>
       <c r="G39">
-        <v>0.1453881363864828</v>
+        <v>0.1276140194273054</v>
       </c>
       <c r="H39">
-        <v>0.01076280808654216</v>
+        <v>0.07192630434555491</v>
       </c>
       <c r="I39">
-        <v>0.08404555368715026</v>
+        <v>0.1112976015159359</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -1657,31 +1657,31 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>0.3391458316485393</v>
+        <v>0.7547976403992657</v>
       </c>
       <c r="B40">
-        <v>0.9202117873251083</v>
+        <v>0.09751223319765912</v>
       </c>
       <c r="C40">
-        <v>0.2521778106634818</v>
+        <v>0.545981548077126</v>
       </c>
       <c r="D40">
-        <v>0.006643390764449864</v>
+        <v>0.04109515548694187</v>
       </c>
       <c r="E40">
-        <v>0.584637390713754</v>
+        <v>0.6962662196254522</v>
       </c>
       <c r="F40">
-        <v>0.09899386733126235</v>
+        <v>0.5514578811128892</v>
       </c>
       <c r="G40">
-        <v>0.2000097426617053</v>
+        <v>0.06341815293285408</v>
       </c>
       <c r="H40">
-        <v>0.0469325459685685</v>
+        <v>0.3728473181503577</v>
       </c>
       <c r="I40">
-        <v>0.5585287838550907</v>
+        <v>0.1069651770192895</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1689,31 +1689,31 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>0.05288864246942482</v>
+        <v>0.6420639250725576</v>
       </c>
       <c r="B41">
-        <v>0.9625817073965781</v>
+        <v>0.03397792247116904</v>
       </c>
       <c r="C41">
-        <v>0.6273186032483996</v>
+        <v>0.2233733557971701</v>
       </c>
       <c r="D41">
-        <v>0.356917632960767</v>
+        <v>0.1049938637533251</v>
       </c>
       <c r="E41">
-        <v>0.6559539033303022</v>
+        <v>0.5940562977983446</v>
       </c>
       <c r="F41">
-        <v>0.06433810804947447</v>
+        <v>0.1217987802131043</v>
       </c>
       <c r="G41">
-        <v>0.4761389868853361</v>
+        <v>0.1614698441005954</v>
       </c>
       <c r="H41">
-        <v>0.008877250171512982</v>
+        <v>0.1209669181983632</v>
       </c>
       <c r="I41">
-        <v>0.2211904674553372</v>
+        <v>0.05447030345113346</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -1721,31 +1721,31 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>0.3391711293399065</v>
+        <v>0.833121222357907</v>
       </c>
       <c r="B42">
-        <v>0.2223828353348827</v>
+        <v>0.3836690946014429</v>
       </c>
       <c r="C42">
-        <v>0.1530746203084902</v>
+        <v>0.05023500081838671</v>
       </c>
       <c r="D42">
-        <v>0.3545025112035602</v>
+        <v>0.07186351401156499</v>
       </c>
       <c r="E42">
-        <v>0.2607326231890562</v>
+        <v>0.637341293062102</v>
       </c>
       <c r="F42">
-        <v>0.09027710098529217</v>
+        <v>0.09561936547683358</v>
       </c>
       <c r="G42">
-        <v>0.1334757061962707</v>
+        <v>0.1325135808741219</v>
       </c>
       <c r="H42">
-        <v>0.006699533980703069</v>
+        <v>0.1908614749811089</v>
       </c>
       <c r="I42">
-        <v>0.4379182277753231</v>
+        <v>0.08222408333564402</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1753,31 +1753,31 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>0.3325395771380233</v>
+        <v>0.9319966478582299</v>
       </c>
       <c r="B43">
-        <v>0.1590096511472027</v>
+        <v>0.08804000929810496</v>
       </c>
       <c r="C43">
-        <v>0.5531511011264946</v>
+        <v>0.3553190878636137</v>
       </c>
       <c r="D43">
-        <v>0.4547706644211075</v>
+        <v>0.04207889750919569</v>
       </c>
       <c r="E43">
-        <v>0.6589729648113591</v>
+        <v>0.7037758519945256</v>
       </c>
       <c r="F43">
-        <v>0.4200601412620608</v>
+        <v>0.4534512602479824</v>
       </c>
       <c r="G43">
-        <v>0.2944822936012533</v>
+        <v>0.1076655540072851</v>
       </c>
       <c r="H43">
-        <v>0.04706572707910708</v>
+        <v>0.2172498756355623</v>
       </c>
       <c r="I43">
-        <v>0.6702166659137535</v>
+        <v>0.03170452481892494</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -1785,31 +1785,31 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>0.5678835456829607</v>
+        <v>0.4568722990652047</v>
       </c>
       <c r="B44">
-        <v>0.6593171153386145</v>
+        <v>0.1640237484961983</v>
       </c>
       <c r="C44">
-        <v>0.4120233561890908</v>
+        <v>0.4479936930044292</v>
       </c>
       <c r="D44">
-        <v>0.2194851730160169</v>
+        <v>0.05993282793777877</v>
       </c>
       <c r="E44">
-        <v>0.3976567566747839</v>
+        <v>0.6804051274440162</v>
       </c>
       <c r="F44">
-        <v>0.4431246602963149</v>
+        <v>0.3833807742532708</v>
       </c>
       <c r="G44">
-        <v>0.4212127815728351</v>
+        <v>0.109139432334659</v>
       </c>
       <c r="H44">
-        <v>0.05927267722303708</v>
+        <v>0.2871819900762532</v>
       </c>
       <c r="I44">
-        <v>0.5289446609673628</v>
+        <v>0.06321153161818116</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1817,31 +1817,31 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>0.4347035902078175</v>
+        <v>0.4482990548896338</v>
       </c>
       <c r="B45">
-        <v>0.2494188861019359</v>
+        <v>0.2516483664296422</v>
       </c>
       <c r="C45">
-        <v>0.5965278947114008</v>
+        <v>0.3468517587206357</v>
       </c>
       <c r="D45">
-        <v>0.2926174092229337</v>
+        <v>0.09304536359331106</v>
       </c>
       <c r="E45">
-        <v>0.1688808280428064</v>
+        <v>0.430133917741657</v>
       </c>
       <c r="F45">
-        <v>0.09532789580774013</v>
+        <v>0.1117609434526038</v>
       </c>
       <c r="G45">
-        <v>0.1647110529653317</v>
+        <v>0.05645348943630885</v>
       </c>
       <c r="H45">
-        <v>0.03204349084408181</v>
+        <v>0.4380762462448965</v>
       </c>
       <c r="I45">
-        <v>0.2107110187976733</v>
+        <v>0.119812588214651</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -1849,31 +1849,31 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>0.14944625631835</v>
+        <v>0.6646086713889292</v>
       </c>
       <c r="B46">
-        <v>0.663171490817313</v>
+        <v>0.2495794692548832</v>
       </c>
       <c r="C46">
-        <v>0.2283797504968205</v>
+        <v>0.3572979836717748</v>
       </c>
       <c r="D46">
-        <v>0.4193384126022408</v>
+        <v>0.04959615969104969</v>
       </c>
       <c r="E46">
-        <v>0.688988580990655</v>
+        <v>0.5774237130405503</v>
       </c>
       <c r="F46">
-        <v>0.3805493628638548</v>
+        <v>0.477757086173856</v>
       </c>
       <c r="G46">
-        <v>0.3119758175319475</v>
+        <v>0.04608888048165261</v>
       </c>
       <c r="H46">
-        <v>0.01027892357628711</v>
+        <v>0.07406485853703026</v>
       </c>
       <c r="I46">
-        <v>0.2081111895459072</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1881,31 +1881,31 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>0.1052632517425035</v>
+        <v>0.8645183969826246</v>
       </c>
       <c r="B47">
-        <v>0.4896551800195622</v>
+        <v>0.1547492247349562</v>
       </c>
       <c r="C47">
-        <v>0.2240746383479998</v>
+        <v>0.3064921281911443</v>
       </c>
       <c r="D47">
-        <v>0.411078640081</v>
+        <v>0.04347860269428405</v>
       </c>
       <c r="E47">
-        <v>0.536912462646312</v>
+        <v>0.6567295109891748</v>
       </c>
       <c r="F47">
-        <v>0.6073049485218917</v>
+        <v>0.1446907619121467</v>
       </c>
       <c r="G47">
-        <v>0.2652193402132942</v>
+        <v>0.1761449006918656</v>
       </c>
       <c r="H47">
-        <v>0.02585537123808242</v>
+        <v>0.1803158525992988</v>
       </c>
       <c r="I47">
-        <v>0.2316692452835447</v>
+        <v>0.03954830682556731</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -1913,31 +1913,31 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>0.04318269212289394</v>
+        <v>0.6244940355650223</v>
       </c>
       <c r="B48">
-        <v>0.2138451699082322</v>
+        <v>0.1206541059955346</v>
       </c>
       <c r="C48">
-        <v>0.1965886826903276</v>
+        <v>0.3021047381743504</v>
       </c>
       <c r="D48">
-        <v>0.2862810578981063</v>
+        <v>0.05421062888491179</v>
       </c>
       <c r="E48">
-        <v>0.357481199715225</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F48">
-        <v>0.5293939851585068</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G48">
-        <v>0.3490602460409385</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H48">
-        <v>0.009819443670995635</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I48">
-        <v>0.6986518540186021</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1945,31 +1945,31 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>0.5006995414194958</v>
+        <v>0.9915779445179059</v>
       </c>
       <c r="B49">
-        <v>0.8795722468358476</v>
+        <v>0.1883755290033807</v>
       </c>
       <c r="C49">
-        <v>0.5452132201178881</v>
+        <v>0.04364328622229507</v>
       </c>
       <c r="D49">
-        <v>0.4575199783456328</v>
+        <v>0.02401880613675444</v>
       </c>
       <c r="E49">
-        <v>0.4477075828096957</v>
+        <v>0.3781907988063215</v>
       </c>
       <c r="F49">
-        <v>0.3705703911769543</v>
+        <v>0.5477265405854913</v>
       </c>
       <c r="G49">
-        <v>0.2375741436799428</v>
+        <v>0.1534507595415777</v>
       </c>
       <c r="H49">
-        <v>0.006014394162753023</v>
+        <v>0.4447165365052599</v>
       </c>
       <c r="I49">
-        <v>0.1973514769299877</v>
+        <v>0.02667361349475139</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -1977,31 +1977,31 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>0.2213509250249843</v>
+        <v>0.7985065405024634</v>
       </c>
       <c r="B50">
-        <v>0.9764865423483902</v>
+        <v>0.2133805080119812</v>
       </c>
       <c r="C50">
-        <v>0.1764204630837841</v>
+        <v>0.257700683852955</v>
       </c>
       <c r="D50">
-        <v>0.3675443721783971</v>
+        <v>0.03180051533645856</v>
       </c>
       <c r="E50">
-        <v>0.6981120686861145</v>
+        <v>0.500168335728052</v>
       </c>
       <c r="F50">
-        <v>0.4614186448255169</v>
+        <v>0.3124154586464249</v>
       </c>
       <c r="G50">
-        <v>0.1471590963615029</v>
+        <v>0.08722526978686643</v>
       </c>
       <c r="H50">
-        <v>0.04081730598708105</v>
+        <v>0.09774450000134027</v>
       </c>
       <c r="I50">
-        <v>0.09655146593969996</v>
+        <v>0.01951137548373139</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2009,31 +2009,31 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>0.2644920737023204</v>
+        <v>0.5493904732188003</v>
       </c>
       <c r="B51">
-        <v>0.4101144322388618</v>
+        <v>0.2041677731775741</v>
       </c>
       <c r="C51">
-        <v>0.3892410804184444</v>
+        <v>0.1242946547036436</v>
       </c>
       <c r="D51">
-        <v>0.1559570321749356</v>
+        <v>0.0779277300563137</v>
       </c>
       <c r="E51">
-        <v>0.6328635549910678</v>
+        <v>0.3927311590213833</v>
       </c>
       <c r="F51">
-        <v>0.1127779239529829</v>
+        <v>0.04849197857168974</v>
       </c>
       <c r="G51">
-        <v>0.3983489588078897</v>
+        <v>0.09697153567480281</v>
       </c>
       <c r="H51">
-        <v>0.0230980472636158</v>
+        <v>0.2414885361452921</v>
       </c>
       <c r="I51">
-        <v>0.2256540755819426</v>
+        <v>0.08268933140592138</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2041,31 +2041,31 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>0.5629626714077043</v>
+        <v>0.4121419847061234</v>
       </c>
       <c r="B52">
-        <v>0.2351034590314968</v>
+        <v>0.2148796402518531</v>
       </c>
       <c r="C52">
-        <v>0.4995127063437478</v>
+        <v>0.1948329011147953</v>
       </c>
       <c r="D52">
-        <v>0.2350258475900515</v>
+        <v>0.08983756253241393</v>
       </c>
       <c r="E52">
-        <v>0.6230533800957889</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F52">
-        <v>0.6206476023243918</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G52">
-        <v>0.271068183422626</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H52">
-        <v>0.003674581413842288</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I52">
-        <v>0.6323304714692947</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2073,31 +2073,31 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>0.0175570675412049</v>
+        <v>0.6556202434561448</v>
       </c>
       <c r="B53">
-        <v>0.2877196591792984</v>
+        <v>0.4298408732522124</v>
       </c>
       <c r="C53">
-        <v>0.1407140610189181</v>
+        <v>0.2151136330260015</v>
       </c>
       <c r="D53">
-        <v>0.2601204912701149</v>
+        <v>0.04249292713786657</v>
       </c>
       <c r="E53">
-        <v>0.2619994729047014</v>
+        <v>0.4989845953434691</v>
       </c>
       <c r="F53">
-        <v>0.6450832729764925</v>
+        <v>0.4787335582435551</v>
       </c>
       <c r="G53">
-        <v>0.002198751216692107</v>
+        <v>0.09797698540553527</v>
       </c>
       <c r="H53">
-        <v>0.03878954355181206</v>
+        <v>0.2180567803390174</v>
       </c>
       <c r="I53">
-        <v>0.1694274568009329</v>
+        <v>0.06860629728809486</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2105,31 +2105,31 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>0.6407986720453868</v>
+        <v>0.8314034891533589</v>
       </c>
       <c r="B54">
-        <v>0.283660398188005</v>
+        <v>0.1524608020646577</v>
       </c>
       <c r="C54">
-        <v>0.575314303966867</v>
+        <v>0.3021047381743504</v>
       </c>
       <c r="D54">
-        <v>0.25122763415311</v>
+        <v>0.05421062888491179</v>
       </c>
       <c r="E54">
-        <v>0.3990057365729049</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F54">
-        <v>0.1359754249992179</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G54">
-        <v>0.4601765422266728</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H54">
-        <v>0.02012289011124068</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I54">
-        <v>0.6627688845111489</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2137,31 +2137,31 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>0.4077666951086351</v>
+        <v>0.8318584317129436</v>
       </c>
       <c r="B55">
-        <v>0.6722317209203582</v>
+        <v>0.03624564072534453</v>
       </c>
       <c r="C55">
-        <v>0.480856647656464</v>
+        <v>0.05036392537385647</v>
       </c>
       <c r="D55">
-        <v>0.4351957990881126</v>
+        <v>0.07599650126532342</v>
       </c>
       <c r="E55">
-        <v>0.5985921112192095</v>
+        <v>0.570025294910979</v>
       </c>
       <c r="F55">
-        <v>0.297900219150411</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G55">
-        <v>0.0264207627750952</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H55">
-        <v>0.009114391218611982</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I55">
-        <v>0.2069636938381895</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -2169,31 +2169,31 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>0.6244947068124599</v>
+        <v>0.5531221047746611</v>
       </c>
       <c r="B56">
-        <v>0.9574733542645768</v>
+        <v>0.2000245400235221</v>
       </c>
       <c r="C56">
-        <v>0.6084918336270422</v>
+        <v>0.2270723042023425</v>
       </c>
       <c r="D56">
-        <v>0.00766297972421548</v>
+        <v>0.06241701601841632</v>
       </c>
       <c r="E56">
-        <v>0.3764696093032857</v>
+        <v>0.5673079209839244</v>
       </c>
       <c r="F56">
-        <v>0.03255980689054538</v>
+        <v>0.2107256026320282</v>
       </c>
       <c r="G56">
-        <v>0.3859411298297879</v>
+        <v>0.07200485558999538</v>
       </c>
       <c r="H56">
-        <v>0.02219857052634507</v>
+        <v>0.07485101940998518</v>
       </c>
       <c r="I56">
-        <v>0.08241820673191856</v>
+        <v>0.01782830777327971</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2201,31 +2201,31 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>0.4342811161346464</v>
+        <v>0.9541595504328112</v>
       </c>
       <c r="B57">
-        <v>0.7916027485076135</v>
+        <v>0.267110708655972</v>
       </c>
       <c r="C57">
-        <v>0.5391133541014633</v>
+        <v>0.3766112647265045</v>
       </c>
       <c r="D57">
-        <v>0.24794418086255</v>
+        <v>0.02004944108896778</v>
       </c>
       <c r="E57">
-        <v>0.2521747065822023</v>
+        <v>0.4861298197916663</v>
       </c>
       <c r="F57">
-        <v>0.2214518174107384</v>
+        <v>0.04509193071966855</v>
       </c>
       <c r="G57">
-        <v>0.1289556763495645</v>
+        <v>0.1135885516896711</v>
       </c>
       <c r="H57">
-        <v>0.01047743604148024</v>
+        <v>0.02014872047975425</v>
       </c>
       <c r="I57">
-        <v>0.3526221155844176</v>
+        <v>0.09916959034554296</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2233,31 +2233,31 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>0.5924594655458464</v>
+        <v>0.5906724437908126</v>
       </c>
       <c r="B58">
-        <v>0.8211156034912193</v>
+        <v>0.1283560420769639</v>
       </c>
       <c r="C58">
-        <v>0.5785465995118048</v>
+        <v>0.2840378603940563</v>
       </c>
       <c r="D58">
-        <v>0.2638870043306628</v>
+        <v>0.09580820520393096</v>
       </c>
       <c r="E58">
-        <v>0.5529438235309332</v>
+        <v>0.377662392828478</v>
       </c>
       <c r="F58">
-        <v>0.1825193514416661</v>
+        <v>0.2067841792826804</v>
       </c>
       <c r="G58">
-        <v>0.07658485361419853</v>
+        <v>0.09040869303615984</v>
       </c>
       <c r="H58">
-        <v>0.04626247248382933</v>
+        <v>0.162715527549859</v>
       </c>
       <c r="I58">
-        <v>0.7166039735648967</v>
+        <v>0.1142735425269507</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2265,31 +2265,31 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>0.3133077096154457</v>
+        <v>0.8630040101258503</v>
       </c>
       <c r="B59">
-        <v>0.5331763069485774</v>
+        <v>0.3275947987529135</v>
       </c>
       <c r="C59">
-        <v>0.1856542973611992</v>
+        <v>0.4454818345132623</v>
       </c>
       <c r="D59">
-        <v>0.1778309488065243</v>
+        <v>0.08226121745953463</v>
       </c>
       <c r="E59">
-        <v>0.288557058318209</v>
+        <v>0.4750533449634355</v>
       </c>
       <c r="F59">
-        <v>0.262549658163382</v>
+        <v>0.3833807742532708</v>
       </c>
       <c r="G59">
-        <v>0.1710876344630896</v>
+        <v>0.109139432334659</v>
       </c>
       <c r="H59">
-        <v>0.03734705795183165</v>
+        <v>0.2871819900762532</v>
       </c>
       <c r="I59">
-        <v>0.00944968230523313</v>
+        <v>0.06321153161818116</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2297,31 +2297,31 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>0.4950374762650084</v>
+        <v>0.4568722990652047</v>
       </c>
       <c r="B60">
-        <v>0.5112498853665763</v>
+        <v>0.1640237484961983</v>
       </c>
       <c r="C60">
-        <v>0.4526921660352822</v>
+        <v>0.3469861851421748</v>
       </c>
       <c r="D60">
-        <v>0.3781846010660094</v>
+        <v>0.09032345345386006</v>
       </c>
       <c r="E60">
-        <v>0.6003795493665306</v>
+        <v>0.5497400094654263</v>
       </c>
       <c r="F60">
-        <v>0.3644206548549305</v>
+        <v>0.2068979848002767</v>
       </c>
       <c r="G60">
-        <v>0.02000129031017939</v>
+        <v>0.07533225489198758</v>
       </c>
       <c r="H60">
-        <v>0.00522110555719349</v>
+        <v>0.0006566467448967384</v>
       </c>
       <c r="I60">
-        <v>0.1385378432319319</v>
+        <v>0.06689334759252852</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2329,31 +2329,31 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>0.06688529585860048</v>
+        <v>0.4069629116868703</v>
       </c>
       <c r="B61">
-        <v>0.5919822112950459</v>
+        <v>0.4014075999007489</v>
       </c>
       <c r="C61">
-        <v>0.5572662444199468</v>
+        <v>0.05036392537385647</v>
       </c>
       <c r="D61">
-        <v>0.2672695297432501</v>
+        <v>0.07599650126532342</v>
       </c>
       <c r="E61">
-        <v>0.339654223226463</v>
+        <v>0.570025294910979</v>
       </c>
       <c r="F61">
-        <v>0.5304756854787485</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G61">
-        <v>0.3194952738499753</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H61">
-        <v>0.01609430363483421</v>
+        <v>0.3558218171380462</v>
       </c>
       <c r="I61">
-        <v>0.2163472316221566</v>
+        <v>0.06518074157866949</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2361,31 +2361,31 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>0.5937632136999371</v>
+        <v>0.6355687327445975</v>
       </c>
       <c r="B62">
-        <v>0.9594403238884487</v>
+        <v>0.004318513734694052</v>
       </c>
       <c r="C62">
-        <v>0.2342020147082372</v>
+        <v>0.2885977722317837</v>
       </c>
       <c r="D62">
-        <v>0.1901516239799677</v>
+        <v>0.007105763435130585</v>
       </c>
       <c r="E62">
-        <v>0.2585807938808289</v>
+        <v>0.6164990552520313</v>
       </c>
       <c r="F62">
-        <v>0.4203662537064145</v>
+        <v>0.2849230802687713</v>
       </c>
       <c r="G62">
-        <v>0.1602096637953589</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H62">
-        <v>0.02130375157547411</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I62">
-        <v>0.3424525867599057</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2393,31 +2393,31 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>0.5255383916592443</v>
+        <v>0.6922363724989998</v>
       </c>
       <c r="B63">
-        <v>0.983383782530256</v>
+        <v>0.08549122146962207</v>
       </c>
       <c r="C63">
-        <v>0.5982580792519654</v>
+        <v>0.4396299598826529</v>
       </c>
       <c r="D63">
-        <v>0.2230486817435918</v>
+        <v>0.05415500192138767</v>
       </c>
       <c r="E63">
-        <v>0.5352728739569894</v>
+        <v>0.6158687448832619</v>
       </c>
       <c r="F63">
-        <v>0.4480849836187392</v>
+        <v>0.04146400436122577</v>
       </c>
       <c r="G63">
-        <v>0.2869621671462586</v>
+        <v>0.1549257747614103</v>
       </c>
       <c r="H63">
-        <v>0.05755705972492947</v>
+        <v>0.07538981780284237</v>
       </c>
       <c r="I63">
-        <v>0.4069986781767495</v>
+        <v>0.01782830777327971</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2425,31 +2425,31 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>0.3768314840856517</v>
+        <v>0.9541595504328112</v>
       </c>
       <c r="B64">
-        <v>0.5347489713481521</v>
+        <v>0.267110708655972</v>
       </c>
       <c r="C64">
-        <v>0.2978735908663748</v>
+        <v>0.3766112647265045</v>
       </c>
       <c r="D64">
-        <v>0.3960097559686292</v>
+        <v>0.02004944108896778</v>
       </c>
       <c r="E64">
-        <v>0.2765235212971929</v>
+        <v>0.4861298197916663</v>
       </c>
       <c r="F64">
-        <v>0.5172898817847769</v>
+        <v>0.04509193071966855</v>
       </c>
       <c r="G64">
-        <v>0.1215195238135641</v>
+        <v>0.06756030095140717</v>
       </c>
       <c r="H64">
-        <v>0.05915658850056916</v>
+        <v>0.09081517700297093</v>
       </c>
       <c r="I64">
-        <v>0.638330923758485</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2457,31 +2457,31 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>0.0514609132829057</v>
+        <v>0.5355216647497048</v>
       </c>
       <c r="B65">
-        <v>0.6665924045142058</v>
+        <v>0.05818452326696399</v>
       </c>
       <c r="C65">
-        <v>0.3198223676550845</v>
+        <v>0.2180286892131554</v>
       </c>
       <c r="D65">
-        <v>0.3904399600968974</v>
+        <v>0.0353698657494973</v>
       </c>
       <c r="E65">
-        <v>0.4741207183710769</v>
+        <v>0.4718743137858611</v>
       </c>
       <c r="F65">
-        <v>0.6972624584684709</v>
+        <v>0.04827042707159235</v>
       </c>
       <c r="G65">
-        <v>0.380498471029535</v>
+        <v>0.04610385576183534</v>
       </c>
       <c r="H65">
-        <v>0.007581775979360697</v>
+        <v>0.1113686718360117</v>
       </c>
       <c r="I65">
-        <v>0.08516477195274517</v>
+        <v>0.06570442418441103</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2489,31 +2489,31 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>0.2717298123344796</v>
+        <v>0.8191069590524739</v>
       </c>
       <c r="B66">
-        <v>0.5627161726128408</v>
+        <v>0.1099989890098809</v>
       </c>
       <c r="C66">
-        <v>0.5196229757442152</v>
+        <v>0.1402553673365387</v>
       </c>
       <c r="D66">
-        <v>0.3825317186847701</v>
+        <v>0.01316847926176457</v>
       </c>
       <c r="E66">
-        <v>0.4344604324542652</v>
+        <v>0.4784750708493798</v>
       </c>
       <c r="F66">
-        <v>0.5439621152365386</v>
+        <v>0.1177254077725267</v>
       </c>
       <c r="G66">
-        <v>0.3523373291949996</v>
+        <v>0.03908184017384237</v>
       </c>
       <c r="H66">
-        <v>0.03827341228791834</v>
+        <v>0.3728473181503577</v>
       </c>
       <c r="I66">
-        <v>0.4845052825137511</v>
+        <v>0.1069651770192895</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2521,31 +2521,31 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>0.2869831514623518</v>
+        <v>0.8764093765684482</v>
       </c>
       <c r="B67">
-        <v>0.7583115545867213</v>
+        <v>0.1729698881058497</v>
       </c>
       <c r="C67">
-        <v>0.6090954998283736</v>
+        <v>0.2119525918502375</v>
       </c>
       <c r="D67">
-        <v>0.3498122362147177</v>
+        <v>0.04005378754576838</v>
       </c>
       <c r="E67">
-        <v>0.4057243467804169</v>
+        <v>0.6904150144781734</v>
       </c>
       <c r="F67">
-        <v>0.6599875791255742</v>
+        <v>0.550355271073494</v>
       </c>
       <c r="G67">
-        <v>0.2351626983159867</v>
+        <v>0.08046854900805506</v>
       </c>
       <c r="H67">
-        <v>0.005295532818882285</v>
+        <v>0.07406485853703026</v>
       </c>
       <c r="I67">
-        <v>0.3027311611741595</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2553,31 +2553,31 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>0.477354932151967</v>
+        <v>0.8217170589652488</v>
       </c>
       <c r="B68">
-        <v>0.6553837080162357</v>
+        <v>0.4245155702693511</v>
       </c>
       <c r="C68">
-        <v>0.6176584729140554</v>
+        <v>0.4180822004871542</v>
       </c>
       <c r="D68">
-        <v>0.2673948221085609</v>
+        <v>0.1093631361288765</v>
       </c>
       <c r="E68">
-        <v>0.6374215592504602</v>
+        <v>0.4047953009846466</v>
       </c>
       <c r="F68">
-        <v>0.6102364869149409</v>
+        <v>0.3838834097494934</v>
       </c>
       <c r="G68">
-        <v>0.04430433022222524</v>
+        <v>0.1395415878813417</v>
       </c>
       <c r="H68">
-        <v>0.02115627259642287</v>
+        <v>0.1931646106973784</v>
       </c>
       <c r="I68">
-        <v>0.3798122243393588</v>
+        <v>0.07025218538990818</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2585,31 +2585,31 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>0.1322346309611143</v>
+        <v>0.4121419847061234</v>
       </c>
       <c r="B69">
-        <v>0.2113756767282043</v>
+        <v>0.3061687662578491</v>
       </c>
       <c r="C69">
-        <v>0.2761581030277338</v>
+        <v>0.06204348235569523</v>
       </c>
       <c r="D69">
-        <v>0.3527246947988819</v>
+        <v>0.04058895575551413</v>
       </c>
       <c r="E69">
-        <v>0.6461403506399059</v>
+        <v>0.5862272202678925</v>
       </c>
       <c r="F69">
-        <v>0.4919902966770888</v>
+        <v>0.04827042707159235</v>
       </c>
       <c r="G69">
-        <v>0.3670699018885727</v>
+        <v>0.04610385576183534</v>
       </c>
       <c r="H69">
-        <v>0.009172136871862309</v>
+        <v>0.3485042493037606</v>
       </c>
       <c r="I69">
-        <v>0.5632540575016651</v>
+        <v>0.1387143292807365</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -2617,31 +2617,31 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>0.2346006317064249</v>
+        <v>0.7266640970002189</v>
       </c>
       <c r="B70">
-        <v>0.4787336588990651</v>
+        <v>0.2495794692548832</v>
       </c>
       <c r="C70">
-        <v>0.5109574966947857</v>
+        <v>0.3572979836717748</v>
       </c>
       <c r="D70">
-        <v>0.3143955551510814</v>
+        <v>0.09492305953499602</v>
       </c>
       <c r="E70">
-        <v>0.4443339344999885</v>
+        <v>0.4285868147398947</v>
       </c>
       <c r="F70">
-        <v>0.4711749930018083</v>
+        <v>0.1514463159802517</v>
       </c>
       <c r="G70">
-        <v>0.3718940837171992</v>
+        <v>0.09887445608088818</v>
       </c>
       <c r="H70">
-        <v>0.03385132125355231</v>
+        <v>0.07668399394490311</v>
       </c>
       <c r="I70">
-        <v>0.2964803659627169</v>
+        <v>0.009214482005096225</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2649,31 +2649,31 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>0.2959750711828925</v>
+        <v>0.8042296383831924</v>
       </c>
       <c r="B71">
-        <v>0.7076116367949717</v>
+        <v>0.2755525215896382</v>
       </c>
       <c r="C71">
-        <v>0.4054505743683767</v>
+        <v>0.3599216660891598</v>
       </c>
       <c r="D71">
-        <v>0.1189040697111685</v>
+        <v>0.08844688318835892</v>
       </c>
       <c r="E71">
-        <v>0.3987777814790727</v>
+        <v>0.6897474782344103</v>
       </c>
       <c r="F71">
-        <v>0.1204664189430476</v>
+        <v>0.1981181152212228</v>
       </c>
       <c r="G71">
-        <v>0.155552228150087</v>
+        <v>0.1510526283745117</v>
       </c>
       <c r="H71">
-        <v>0.03106522775453343</v>
+        <v>0.1339191031369444</v>
       </c>
       <c r="I71">
-        <v>0.5656434380502019</v>
+        <v>0.03083847241455329</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -2681,31 +2681,31 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>0.6678252725923698</v>
+        <v>0.955642571440521</v>
       </c>
       <c r="B72">
-        <v>0.4207873373459931</v>
+        <v>0.208251096278996</v>
       </c>
       <c r="C72">
-        <v>0.5949073096922909</v>
+        <v>0.3021047381743504</v>
       </c>
       <c r="D72">
-        <v>0.1730521544157363</v>
+        <v>0.05421062888491179</v>
       </c>
       <c r="E72">
-        <v>0.2516536224853655</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F72">
-        <v>0.5342230653076827</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G72">
-        <v>0.01173299663202021</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H72">
-        <v>0.06023161711706645</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I72">
-        <v>0.5626242055765965</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2713,31 +2713,31 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>0.04595381356983108</v>
+        <v>0.9130433579059982</v>
       </c>
       <c r="B73">
-        <v>0.2685746963082561</v>
+        <v>0.129470296105595</v>
       </c>
       <c r="C73">
-        <v>0.2074274091707299</v>
+        <v>0.2041957927401601</v>
       </c>
       <c r="D73">
-        <v>0.3112404450872472</v>
+        <v>0.08482974515875863</v>
       </c>
       <c r="E73">
-        <v>0.6956570790119699</v>
+        <v>0.496120982530987</v>
       </c>
       <c r="F73">
-        <v>0.1843123178638895</v>
+        <v>0.04733287752619197</v>
       </c>
       <c r="G73">
-        <v>0.4856276859346527</v>
+        <v>0.1670785330553123</v>
       </c>
       <c r="H73">
-        <v>0.03218973807258182</v>
+        <v>0.2149330375183914</v>
       </c>
       <c r="I73">
-        <v>0.1940493690372482</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -2745,31 +2745,31 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>0.6281511087164954</v>
+        <v>0.9319966478582299</v>
       </c>
       <c r="B74">
-        <v>0.4937261520191718</v>
+        <v>0.08804000929810496</v>
       </c>
       <c r="C74">
-        <v>0.3119264668014843</v>
+        <v>0.3553190878636137</v>
       </c>
       <c r="D74">
-        <v>0.1717367743018341</v>
+        <v>0.04207889750919569</v>
       </c>
       <c r="E74">
-        <v>0.1872122725144671</v>
+        <v>0.7037758519945256</v>
       </c>
       <c r="F74">
-        <v>0.4263868477797243</v>
+        <v>0.4534512602479824</v>
       </c>
       <c r="G74">
-        <v>0.08963531457673102</v>
+        <v>0.06611954931686199</v>
       </c>
       <c r="H74">
-        <v>0.03713504386819957</v>
+        <v>0.2308065893799875</v>
       </c>
       <c r="I74">
-        <v>0.01694047954872757</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2777,31 +2777,31 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>0.7158862005408366</v>
+        <v>0.4685104070884504</v>
       </c>
       <c r="B75">
-        <v>0.4992223632553632</v>
+        <v>0.06051118260328514</v>
       </c>
       <c r="C75">
-        <v>0.3399848740032045</v>
+        <v>0.3426888491562078</v>
       </c>
       <c r="D75">
-        <v>0.2230486817435918</v>
+        <v>0.1073523460799511</v>
       </c>
       <c r="E75">
-        <v>0.5352728739569894</v>
+        <v>0.7090283759820732</v>
       </c>
       <c r="F75">
-        <v>0.4480849836187392</v>
+        <v>0.3139749202528145</v>
       </c>
       <c r="G75">
-        <v>0.2869621671462586</v>
+        <v>0.04610385576183534</v>
       </c>
       <c r="H75">
-        <v>0.05755705972492947</v>
+        <v>0.1113686718360117</v>
       </c>
       <c r="I75">
-        <v>0.4069986781767495</v>
+        <v>0.0750916495871996</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -2809,31 +2809,31 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>0.311383285673516</v>
+        <v>0.9386074406746919</v>
       </c>
       <c r="B76">
-        <v>0.6216179486035806</v>
+        <v>0.2939289680268716</v>
       </c>
       <c r="C76">
-        <v>0.5618613987621314</v>
+        <v>0.2821322567791826</v>
       </c>
       <c r="D76">
-        <v>0.001501686047190476</v>
+        <v>0.0737841798468557</v>
       </c>
       <c r="E76">
-        <v>0.568756225312595</v>
+        <v>0.4285868147398947</v>
       </c>
       <c r="F76">
-        <v>0.2537437902925249</v>
+        <v>0.1395898766818142</v>
       </c>
       <c r="G76">
-        <v>0.4903952188322708</v>
+        <v>0.04608888048165261</v>
       </c>
       <c r="H76">
-        <v>0.05901309667759264</v>
+        <v>0.07406485853703026</v>
       </c>
       <c r="I76">
-        <v>0.1240803045940735</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2841,31 +2841,31 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>0.6508070646052436</v>
+        <v>0.9347627712048423</v>
       </c>
       <c r="B77">
-        <v>0.7553449612454084</v>
+        <v>0.2064902245125843</v>
       </c>
       <c r="C77">
-        <v>0.4786798752437953</v>
+        <v>0.5313982954169721</v>
       </c>
       <c r="D77">
-        <v>0.2194851730160169</v>
+        <v>0.06067417172711853</v>
       </c>
       <c r="E77">
-        <v>0.3976567566747839</v>
+        <v>0.6991726698227984</v>
       </c>
       <c r="F77">
-        <v>0.4431246602963149</v>
+        <v>0.1783164598138861</v>
       </c>
       <c r="G77">
-        <v>0.4212127815728351</v>
+        <v>0.1063371943177239</v>
       </c>
       <c r="H77">
-        <v>0.05927267722303708</v>
+        <v>0.4212080129212653</v>
       </c>
       <c r="I77">
-        <v>0.5289446609673628</v>
+        <v>0.0274891813822844</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -2873,31 +2873,31 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>0.2981985347465008</v>
+        <v>0.9672332408855344</v>
       </c>
       <c r="B78">
-        <v>0.5712227810839867</v>
+        <v>0.1519277333349992</v>
       </c>
       <c r="C78">
-        <v>0.6203894064446684</v>
+        <v>0.04832720718814919</v>
       </c>
       <c r="D78">
-        <v>0.449991781250406</v>
+        <v>0.05350263522791587</v>
       </c>
       <c r="E78">
-        <v>0.537285493837026</v>
+        <v>0.5357346156742403</v>
       </c>
       <c r="F78">
-        <v>0.2110628552837419</v>
+        <v>0.5132061757609084</v>
       </c>
       <c r="G78">
-        <v>0.2386235259558008</v>
+        <v>0.04608888048165261</v>
       </c>
       <c r="H78">
-        <v>0.02267619475371265</v>
+        <v>0.07406485853703026</v>
       </c>
       <c r="I78">
-        <v>0.198995956901249</v>
+        <v>0.03730499995242531</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2905,31 +2905,31 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>0.6645881667476684</v>
+        <v>0.5710847079598179</v>
       </c>
       <c r="B79">
-        <v>0.1549408609388377</v>
+        <v>0.03319230383700156</v>
       </c>
       <c r="C79">
-        <v>0.2594696152096118</v>
+        <v>0.2848624945787262</v>
       </c>
       <c r="D79">
-        <v>0.246647887898259</v>
+        <v>0.05781224683602582</v>
       </c>
       <c r="E79">
-        <v>0.3428680995594175</v>
+        <v>0.5395966793938629</v>
       </c>
       <c r="F79">
-        <v>0.02412970070355014</v>
+        <v>0.2970340362819299</v>
       </c>
       <c r="G79">
-        <v>0.3460845655254655</v>
+        <v>0.07200485558999538</v>
       </c>
       <c r="H79">
-        <v>0.03888296889723037</v>
+        <v>0.2299670560778628</v>
       </c>
       <c r="I79">
-        <v>0.4241857963766965</v>
+        <v>0.0469487455359977</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -2937,31 +2937,31 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>0.2597384898810232</v>
+        <v>0.6128522047540635</v>
       </c>
       <c r="B80">
-        <v>0.4560810596788768</v>
+        <v>0.1058441769696452</v>
       </c>
       <c r="C80">
-        <v>0.4890340940622742</v>
+        <v>0.08027466108528812</v>
       </c>
       <c r="D80">
-        <v>0.4119883422353433</v>
+        <v>0.09304536359331106</v>
       </c>
       <c r="E80">
-        <v>0.6836536485864846</v>
+        <v>0.430133917741657</v>
       </c>
       <c r="F80">
-        <v>0.2214205707889209</v>
+        <v>0.1117609434526038</v>
       </c>
       <c r="G80">
-        <v>0.4849481560426546</v>
+        <v>0.05645348943630885</v>
       </c>
       <c r="H80">
-        <v>0.01177702858370062</v>
+        <v>0.4380762462448965</v>
       </c>
       <c r="I80">
-        <v>0.1980663128383459</v>
+        <v>0.119812588214651</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2969,31 +2969,31 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>0.7190566274852042</v>
+        <v>0.6497657257845295</v>
       </c>
       <c r="B81">
-        <v>0.4233263871088286</v>
+        <v>0.0003153830198996399</v>
       </c>
       <c r="C81">
-        <v>0.4389253386559148</v>
+        <v>0.5276363363824712</v>
       </c>
       <c r="D81">
-        <v>0.1944185470419049</v>
+        <v>0.09583012414861103</v>
       </c>
       <c r="E81">
-        <v>0.4025054208842939</v>
+        <v>0.6233349799075227</v>
       </c>
       <c r="F81">
-        <v>0.1904549310509321</v>
+        <v>0.2856141139135869</v>
       </c>
       <c r="G81">
-        <v>0.04175851252398199</v>
+        <v>0.1771704358695389</v>
       </c>
       <c r="H81">
-        <v>0.06069684891943866</v>
+        <v>0.07428478543813577</v>
       </c>
       <c r="I81">
-        <v>0.4445920202486214</v>
+        <v>0.04033666541936987</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -3001,31 +3001,31 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>0.2717298123344796</v>
+        <v>0.6922363724989998</v>
       </c>
       <c r="B82">
-        <v>0.5627161726128408</v>
+        <v>0.08549122146962207</v>
       </c>
       <c r="C82">
-        <v>0.5196229757442152</v>
+        <v>0.4080817453162132</v>
       </c>
       <c r="D82">
-        <v>0.3825317186847701</v>
+        <v>0.03304383034078373</v>
       </c>
       <c r="E82">
-        <v>0.4344604324542652</v>
+        <v>0.5722021577599786</v>
       </c>
       <c r="F82">
-        <v>0.5439621152365386</v>
+        <v>0.3919252472747498</v>
       </c>
       <c r="G82">
-        <v>0.3523373291949996</v>
+        <v>0.08722526978686643</v>
       </c>
       <c r="H82">
-        <v>0.03827341228791834</v>
+        <v>0.09774450000134027</v>
       </c>
       <c r="I82">
-        <v>0.4845052825137511</v>
+        <v>0.01951137548373139</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -3033,31 +3033,31 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>0.6600554541985963</v>
+        <v>0.9541595504328112</v>
       </c>
       <c r="B83">
-        <v>0.6708356024456728</v>
+        <v>0.267110708655972</v>
       </c>
       <c r="C83">
-        <v>0.330558889554915</v>
+        <v>0.3766112647265045</v>
       </c>
       <c r="D83">
-        <v>0.3779781699822934</v>
+        <v>0.02004944108896778</v>
       </c>
       <c r="E83">
-        <v>0.3445089208173779</v>
+        <v>0.4861298197916663</v>
       </c>
       <c r="F83">
-        <v>0.3737914466411368</v>
+        <v>0.04509193071966855</v>
       </c>
       <c r="G83">
-        <v>0.1061324976518402</v>
+        <v>0.06756030095140717</v>
       </c>
       <c r="H83">
-        <v>0.01906967002586363</v>
+        <v>0.2299670560778628</v>
       </c>
       <c r="I83">
-        <v>0.2489468594084387</v>
+        <v>0.0469487455359977</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -3065,31 +3065,31 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>0.5390587587312611</v>
+        <v>0.5355216647497048</v>
       </c>
       <c r="B84">
-        <v>0.6781520105314067</v>
+        <v>0.05818452326696399</v>
       </c>
       <c r="C84">
-        <v>0.1738086968482632</v>
+        <v>0.2180286892131554</v>
       </c>
       <c r="D84">
-        <v>0.01796484922845465</v>
+        <v>0.0353698657494973</v>
       </c>
       <c r="E84">
-        <v>0.6077452840058625</v>
+        <v>0.4718743137858611</v>
       </c>
       <c r="F84">
-        <v>0.206493088286006</v>
+        <v>0.1346571727471465</v>
       </c>
       <c r="G84">
-        <v>0.3987967160888034</v>
+        <v>0.1767749970585777</v>
       </c>
       <c r="H84">
-        <v>0.006210215274556983</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I84">
-        <v>0.2604565791185932</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -3097,31 +3097,31 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>0.6403446257192856</v>
+        <v>0.9915779445179059</v>
       </c>
       <c r="B85">
-        <v>0.4735340524793907</v>
+        <v>0.1883755290033807</v>
       </c>
       <c r="C85">
-        <v>0.5949073096922909</v>
+        <v>0.04364328622229507</v>
       </c>
       <c r="D85">
-        <v>0.1730521544157363</v>
+        <v>0.02401880613675444</v>
       </c>
       <c r="E85">
-        <v>0.2516536224853655</v>
+        <v>0.637341293062102</v>
       </c>
       <c r="F85">
-        <v>0.5342230653076827</v>
+        <v>0.09561936547683358</v>
       </c>
       <c r="G85">
-        <v>0.01173299663202021</v>
+        <v>0.1325135808741219</v>
       </c>
       <c r="H85">
-        <v>0.06023161711706645</v>
+        <v>0.256795286678049</v>
       </c>
       <c r="I85">
-        <v>0.5626242055765965</v>
+        <v>0.1395523384802121</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -3129,31 +3129,31 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>0.4051558541732354</v>
+        <v>0.4121419847061234</v>
       </c>
       <c r="B86">
-        <v>0.1203643427749163</v>
+        <v>0.3061687662578491</v>
       </c>
       <c r="C86">
-        <v>0.4507414951081598</v>
+        <v>0.06204348235569523</v>
       </c>
       <c r="D86">
-        <v>0.3426562342181333</v>
+        <v>0.04058895575551413</v>
       </c>
       <c r="E86">
-        <v>0.2494292809798407</v>
+        <v>0.5521111233033369</v>
       </c>
       <c r="F86">
-        <v>0.5545831036980763</v>
+        <v>0.3919252472747498</v>
       </c>
       <c r="G86">
-        <v>0.3626875482870877</v>
+        <v>0.08722526978686643</v>
       </c>
       <c r="H86">
-        <v>0.004296066691652643</v>
+        <v>0.09774450000134027</v>
       </c>
       <c r="I86">
-        <v>0.2305283264570411</v>
+        <v>0.01951137548373139</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -3161,31 +3161,31 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>0.02880934686247461</v>
+        <v>0.5793020505402815</v>
       </c>
       <c r="B87">
-        <v>0.1886397974786005</v>
+        <v>0.1729698881058497</v>
       </c>
       <c r="C87">
-        <v>0.4950203652812423</v>
+        <v>0.2119525918502375</v>
       </c>
       <c r="D87">
-        <v>0.03173771720934104</v>
+        <v>0.04005378754576838</v>
       </c>
       <c r="E87">
-        <v>0.6300658117355448</v>
+        <v>0.6904150144781734</v>
       </c>
       <c r="F87">
-        <v>0.05270861748516808</v>
+        <v>0.550355271073494</v>
       </c>
       <c r="G87">
-        <v>0.08260378924952727</v>
+        <v>0.08046854900805506</v>
       </c>
       <c r="H87">
-        <v>0.01063662445980172</v>
+        <v>0.329238646653336</v>
       </c>
       <c r="I87">
-        <v>0.4066340097585662</v>
+        <v>0.05554763944689278</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -3193,31 +3193,31 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>0.3145321088941571</v>
+        <v>0.9915779445179059</v>
       </c>
       <c r="B88">
-        <v>0.5528538566386623</v>
+        <v>0.1883755290033807</v>
       </c>
       <c r="C88">
-        <v>0.4235592634385436</v>
+        <v>0.04364328622229507</v>
       </c>
       <c r="D88">
-        <v>0.3668919512371521</v>
+        <v>0.02401880613675444</v>
       </c>
       <c r="E88">
-        <v>0.5927724743215074</v>
+        <v>0.3781907988063215</v>
       </c>
       <c r="F88">
-        <v>0.6836080497782339</v>
+        <v>0.5477265405854913</v>
       </c>
       <c r="G88">
-        <v>0.4034099380978555</v>
+        <v>0.1534507595415777</v>
       </c>
       <c r="H88">
-        <v>0.02770035002315439</v>
+        <v>0.4447165365052599</v>
       </c>
       <c r="I88">
-        <v>0.5251275711988675</v>
+        <v>0.02667361349475139</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -3225,31 +3225,31 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>0.05547164343686606</v>
+        <v>0.7362411639329569</v>
       </c>
       <c r="B89">
-        <v>0.2081458090018006</v>
+        <v>0.1883755290033807</v>
       </c>
       <c r="C89">
-        <v>0.3186804916888137</v>
+        <v>0.04364328622229507</v>
       </c>
       <c r="D89">
-        <v>0.1958924640551224</v>
+        <v>0.02401880613675444</v>
       </c>
       <c r="E89">
-        <v>0.3325385122781174</v>
+        <v>0.3781907988063215</v>
       </c>
       <c r="F89">
-        <v>0.5156945645929835</v>
+        <v>0.4628804794017293</v>
       </c>
       <c r="G89">
-        <v>0.330873307926324</v>
+        <v>0.1642376031944868</v>
       </c>
       <c r="H89">
-        <v>0.02490509525989802</v>
+        <v>0.1081090340560833</v>
       </c>
       <c r="I89">
-        <v>0.1883175387354192</v>
+        <v>0.0469487455359977</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -3257,31 +3257,31 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>0.5582962772185625</v>
+        <v>0.4121419847061234</v>
       </c>
       <c r="B90">
-        <v>0.6531976157816782</v>
+        <v>0.2148796402518531</v>
       </c>
       <c r="C90">
-        <v>0.2138183612365603</v>
+        <v>0.1948329011147953</v>
       </c>
       <c r="D90">
-        <v>0.2009514232225124</v>
+        <v>0.08983756253241393</v>
       </c>
       <c r="E90">
-        <v>0.3199755420651496</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F90">
-        <v>0.6102876593011679</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G90">
-        <v>0.5047886360280875</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H90">
-        <v>0.04269524655201967</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I90">
-        <v>0.2242885517031423</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -3289,31 +3289,31 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>0.4835854926749015</v>
+        <v>0.996582960298266</v>
       </c>
       <c r="B91">
-        <v>0.7921606153929346</v>
+        <v>0.001271932191750591</v>
       </c>
       <c r="C91">
-        <v>0.4719409815184734</v>
+        <v>0.5569814974553881</v>
       </c>
       <c r="D91">
-        <v>0.3142338951318726</v>
+        <v>0.0353698657494973</v>
       </c>
       <c r="E91">
-        <v>0.5507611180953917</v>
+        <v>0.4718743137858611</v>
       </c>
       <c r="F91">
-        <v>0.5571071733217833</v>
+        <v>0.04827042707159235</v>
       </c>
       <c r="G91">
-        <v>0.3493616605263145</v>
+        <v>0.04610385576183534</v>
       </c>
       <c r="H91">
-        <v>0.007016395783179508</v>
+        <v>0.3485042493037606</v>
       </c>
       <c r="I91">
-        <v>0.424083719953525</v>
+        <v>0.1387143292807365</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -3321,31 +3321,31 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>0.00309834367480244</v>
+        <v>0.5709778226094937</v>
       </c>
       <c r="B92">
-        <v>0.8236904313393494</v>
+        <v>0.2834506789912428</v>
       </c>
       <c r="C92">
-        <v>0.1627178579600085</v>
+        <v>0.4096699059569429</v>
       </c>
       <c r="D92">
-        <v>0.4464815061277102</v>
+        <v>0.07053064181321389</v>
       </c>
       <c r="E92">
-        <v>0.3568693411435515</v>
+        <v>0.4344246330957127</v>
       </c>
       <c r="F92">
-        <v>0.2048513034150969</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G92">
-        <v>0.1710608014545717</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H92">
-        <v>0.05925505028351526</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I92">
-        <v>0.6648810882290938</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -3353,31 +3353,31 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>0.6730584299959848</v>
+        <v>0.4568722990652047</v>
       </c>
       <c r="B93">
-        <v>0.7882275103342924</v>
+        <v>0.1640237484961983</v>
       </c>
       <c r="C93">
-        <v>0.3770804232396651</v>
+        <v>0.3469861851421748</v>
       </c>
       <c r="D93">
-        <v>0.08744805156025737</v>
+        <v>0.09032345345386006</v>
       </c>
       <c r="E93">
-        <v>0.6447201816135898</v>
+        <v>0.423012575862843</v>
       </c>
       <c r="F93">
-        <v>0.5248391730657705</v>
+        <v>0.452356111862863</v>
       </c>
       <c r="G93">
-        <v>0.3470189212414048</v>
+        <v>0.1760062367363678</v>
       </c>
       <c r="H93">
-        <v>0.006014394162753023</v>
+        <v>0.4612292463783765</v>
       </c>
       <c r="I93">
-        <v>0.1973514769299877</v>
+        <v>0.1280242644327991</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -3385,31 +3385,31 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>0.3353188155873971</v>
+        <v>0.7697839908451454</v>
       </c>
       <c r="B94">
-        <v>0.7845650562434767</v>
+        <v>0.0955926483259506</v>
       </c>
       <c r="C94">
-        <v>0.5955789670887723</v>
+        <v>0.4740925885580287</v>
       </c>
       <c r="D94">
-        <v>0.1036378291590899</v>
+        <v>0.09866299238373155</v>
       </c>
       <c r="E94">
-        <v>0.6145756511923954</v>
+        <v>0.4312136263316098</v>
       </c>
       <c r="F94">
-        <v>0.5499278860255024</v>
+        <v>0.5132061757609084</v>
       </c>
       <c r="G94">
-        <v>0.4648426896289388</v>
+        <v>0.04608888048165261</v>
       </c>
       <c r="H94">
-        <v>0.02878609254865715</v>
+        <v>0.07406485853703026</v>
       </c>
       <c r="I94">
-        <v>0.3929602954205065</v>
+        <v>0.0365625527118838</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -3417,31 +3417,31 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>0.4393939340743445</v>
+        <v>0.6244940355650223</v>
       </c>
       <c r="B95">
-        <v>0.7250268621293673</v>
+        <v>0.01071183128125408</v>
       </c>
       <c r="C95">
-        <v>0.6084918336270422</v>
+        <v>0.2286682097844891</v>
       </c>
       <c r="D95">
-        <v>0.00766297972421548</v>
+        <v>0.09583012414861103</v>
       </c>
       <c r="E95">
-        <v>0.3764696093032857</v>
+        <v>0.5795697456658347</v>
       </c>
       <c r="F95">
-        <v>0.03255980689054538</v>
+        <v>0.2068979848002767</v>
       </c>
       <c r="G95">
-        <v>0.3859411298297879</v>
+        <v>0.06510040698899122</v>
       </c>
       <c r="H95">
-        <v>0.02219857052634507</v>
+        <v>0.0006566467448967384</v>
       </c>
       <c r="I95">
-        <v>0.08241820673191856</v>
+        <v>0.06689334759252852</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -3449,31 +3449,31 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>0.2094769402394808</v>
+        <v>0.3911545324184357</v>
       </c>
       <c r="B96">
-        <v>0.9870351034088851</v>
+        <v>0.3877985304847302</v>
       </c>
       <c r="C96">
-        <v>0.5311051344964105</v>
+        <v>0.3707796601365201</v>
       </c>
       <c r="D96">
-        <v>0.4249633128061328</v>
+        <v>0.1123123644618162</v>
       </c>
       <c r="E96">
-        <v>0.5167512904039444</v>
+        <v>0.6048614443068946</v>
       </c>
       <c r="F96">
-        <v>0.1566592886063762</v>
+        <v>0.1496880560055804</v>
       </c>
       <c r="G96">
-        <v>0.3899779190324516</v>
+        <v>0.1031780557329882</v>
       </c>
       <c r="H96">
-        <v>0.04393066696539296</v>
+        <v>0.1805851302873309</v>
       </c>
       <c r="I96">
-        <v>0.05989537348657446</v>
+        <v>0.09632078131221722</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -3481,31 +3481,31 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>0.0557877332700738</v>
+        <v>0.7007467609443246</v>
       </c>
       <c r="B97">
-        <v>0.7150712081861351</v>
+        <v>0.1995640745745835</v>
       </c>
       <c r="C97">
-        <v>0.6061714565750843</v>
+        <v>0.3237026273754754</v>
       </c>
       <c r="D97">
-        <v>0.02876523048800439</v>
+        <v>0.1065685718122688</v>
       </c>
       <c r="E97">
-        <v>0.6045314615216525</v>
+        <v>0.434181459157146</v>
       </c>
       <c r="F97">
-        <v>0.081017059376274</v>
+        <v>0.0949780641380068</v>
       </c>
       <c r="G97">
-        <v>0.2121924513738639</v>
+        <v>0.1076655540072851</v>
       </c>
       <c r="H97">
-        <v>0.05402214679389947</v>
+        <v>0.366448099451273</v>
       </c>
       <c r="I97">
-        <v>0.5265704617043414</v>
+        <v>0.06422416496386807</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -3513,31 +3513,31 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>0.1155286078383561</v>
+        <v>0.7547976403992657</v>
       </c>
       <c r="B98">
-        <v>0.5560506990870803</v>
+        <v>0.09751223319765912</v>
       </c>
       <c r="C98">
-        <v>0.3357405659428578</v>
+        <v>0.545981548077126</v>
       </c>
       <c r="D98">
-        <v>0.00312248146433769</v>
+        <v>0.04109515548694187</v>
       </c>
       <c r="E98">
-        <v>0.6681626241591649</v>
+        <v>0.6962662196254522</v>
       </c>
       <c r="F98">
-        <v>0.5399132920134022</v>
+        <v>0.1952976809648556</v>
       </c>
       <c r="G98">
-        <v>0.3383174247963422</v>
+        <v>0.1670785330553123</v>
       </c>
       <c r="H98">
-        <v>0.008977660984373338</v>
+        <v>0.2149330375183914</v>
       </c>
       <c r="I98">
-        <v>0.01529433175305794</v>
+        <v>0.02628783982005511</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -3545,31 +3545,31 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>0.01750074971190452</v>
+        <v>0.8345750909087408</v>
       </c>
       <c r="B99">
-        <v>0.364942589872264</v>
+        <v>0.4189309375534644</v>
       </c>
       <c r="C99">
-        <v>0.3022685068045612</v>
+        <v>0.09870232590248217</v>
       </c>
       <c r="D99">
-        <v>0.02232957701146732</v>
+        <v>0.07700654641742599</v>
       </c>
       <c r="E99">
-        <v>0.5419849940821615</v>
+        <v>0.7109577526963464</v>
       </c>
       <c r="F99">
-        <v>0.06971632430295414</v>
+        <v>0.5132061757609084</v>
       </c>
       <c r="G99">
-        <v>0.08746347347572991</v>
+        <v>0.04608888048165261</v>
       </c>
       <c r="H99">
-        <v>0.05718420291011243</v>
+        <v>0.07406485853703026</v>
       </c>
       <c r="I99">
-        <v>0.3096379955067116</v>
+        <v>0.07593644859296811</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -3577,31 +3577,31 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>0.2959750711828925</v>
+        <v>0.8108718524745734</v>
       </c>
       <c r="B100">
-        <v>0.7076116367949717</v>
+        <v>0.3161252286505334</v>
       </c>
       <c r="C100">
-        <v>0.4054505743683767</v>
+        <v>0.4815002611209022</v>
       </c>
       <c r="D100">
-        <v>0.1189040697111685</v>
+        <v>0.0122791416269612</v>
       </c>
       <c r="E100">
-        <v>0.3987777814790727</v>
+        <v>0.3669523299667646</v>
       </c>
       <c r="F100">
-        <v>0.1204664189430476</v>
+        <v>0.2711070211480862</v>
       </c>
       <c r="G100">
-        <v>0.155552228150087</v>
+        <v>0.1579378329328133</v>
       </c>
       <c r="H100">
-        <v>0.03106522775453343</v>
+        <v>0.1610206311860509</v>
       </c>
       <c r="I100">
-        <v>0.2695310582345615</v>
+        <v>0.02662621431082024</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -3609,31 +3609,31 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>0.1202564147469597</v>
+        <v>0.6052779413645497</v>
       </c>
       <c r="B101">
-        <v>0.4694815705120836</v>
+        <v>0.05881100266935724</v>
       </c>
       <c r="C101">
-        <v>0.1815462108295573</v>
+        <v>0.2011448808911353</v>
       </c>
       <c r="D101">
-        <v>0.3504721805729522</v>
+        <v>0.1081565557026843</v>
       </c>
       <c r="E101">
-        <v>0.5329094836948494</v>
+        <v>0.6493898174169548</v>
       </c>
       <c r="F101">
-        <v>0.66978471162276</v>
+        <v>0.2417833585370766</v>
       </c>
       <c r="G101">
-        <v>0.5206378211217164</v>
+        <v>0.07134750300971732</v>
       </c>
       <c r="H101">
-        <v>0.02747302130160744</v>
+        <v>0.320881613264156</v>
       </c>
       <c r="I101">
-        <v>0.03717838495865277</v>
+        <v>0.0750916495871996</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -3641,31 +3641,31 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>0.2084262296817762</v>
+        <v>0.9154882306733495</v>
       </c>
       <c r="B102">
-        <v>0.9163394168714402</v>
+        <v>0.1486088862939657</v>
       </c>
       <c r="C102">
-        <v>0.5322754574507056</v>
+        <v>0.5494677396717638</v>
       </c>
       <c r="D102">
-        <v>0.1709215896905156</v>
+        <v>0.07258426278846708</v>
       </c>
       <c r="E102">
-        <v>0.561140098393399</v>
+        <v>0.6746518604026394</v>
       </c>
       <c r="F102">
-        <v>0.01627186733288455</v>
+        <v>0.4477718343028149</v>
       </c>
       <c r="G102">
-        <v>0.04973337626676444</v>
+        <v>0.1380367198336127</v>
       </c>
       <c r="H102">
-        <v>0.02763005267046233</v>
+        <v>0.2579711525145595</v>
       </c>
       <c r="I102">
-        <v>0.225585372402498</v>
+        <v>0.009383721226956965</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -3673,31 +3673,31 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>0.4045410028216079</v>
+        <v>0.6799730458168126</v>
       </c>
       <c r="B103">
-        <v>0.5079453530317842</v>
+        <v>0.4237428572443621</v>
       </c>
       <c r="C103">
-        <v>0.5245863899526135</v>
+        <v>0.5417823303740504</v>
       </c>
       <c r="D103">
-        <v>0.3947725671079859</v>
+        <v>0.008956494663654335</v>
       </c>
       <c r="E103">
-        <v>0.6920220179335469</v>
+        <v>0.4060153344938205</v>
       </c>
       <c r="F103">
-        <v>0.5033165531735374</v>
+        <v>0.1783164598138861</v>
       </c>
       <c r="G103">
-        <v>0.1908686176916563</v>
+        <v>0.1063371943177239</v>
       </c>
       <c r="H103">
-        <v>0.003107464419603993</v>
+        <v>0.2341248298915537</v>
       </c>
       <c r="I103">
-        <v>0.1917722460713678</v>
+        <v>0.1348495942054965</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -3705,31 +3705,31 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>0.3006226076088537</v>
+        <v>0.8578452777499727</v>
       </c>
       <c r="B104">
-        <v>0.4786578921946799</v>
+        <v>0.05673783317358139</v>
       </c>
       <c r="C104">
-        <v>0.6153053128384939</v>
+        <v>0.5569814974553881</v>
       </c>
       <c r="D104">
-        <v>0.05322714879515145</v>
+        <v>0.05590960014190693</v>
       </c>
       <c r="E104">
-        <v>0.6599543506460762</v>
+        <v>0.442850239183939</v>
       </c>
       <c r="F104">
-        <v>0.6972624584684709</v>
+        <v>0.386867844865687</v>
       </c>
       <c r="G104">
-        <v>0.380498471029535</v>
+        <v>0.09040869303615984</v>
       </c>
       <c r="H104">
-        <v>0.007581775979360697</v>
+        <v>0.162715527549859</v>
       </c>
       <c r="I104">
-        <v>0.08516477195274517</v>
+        <v>0.1142735425269507</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -3737,31 +3737,31 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>0.5510455969802863</v>
+        <v>0.5694877946619571</v>
       </c>
       <c r="B105">
-        <v>0.5155804690828129</v>
+        <v>0.3422642973437473</v>
       </c>
       <c r="C105">
-        <v>0.6145861351437184</v>
+        <v>0.1537627775893052</v>
       </c>
       <c r="D105">
-        <v>0.2618682099621755</v>
+        <v>0.1048238581377843</v>
       </c>
       <c r="E105">
-        <v>0.3868347431108788</v>
+        <v>0.454077037657888</v>
       </c>
       <c r="F105">
-        <v>0.6374649550848288</v>
+        <v>0.4967283371385496</v>
       </c>
       <c r="G105">
-        <v>0.3120402524521304</v>
+        <v>0.1205499943448626</v>
       </c>
       <c r="H105">
-        <v>0.06223276270198421</v>
+        <v>0.07719909200634745</v>
       </c>
       <c r="I105">
-        <v>0.475965634427027</v>
+        <v>0.09479963372778222</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -3769,31 +3769,31 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>0.376290002020425</v>
+        <v>0.6030606805881324</v>
       </c>
       <c r="B106">
-        <v>0.1132801856653916</v>
+        <v>0.4026287762077728</v>
       </c>
       <c r="C106">
-        <v>0.1516475057474361</v>
+        <v>0.3902268255179335</v>
       </c>
       <c r="D106">
-        <v>0.456803342324811</v>
+        <v>0.1048238581377843</v>
       </c>
       <c r="E106">
-        <v>0.5741766017747116</v>
+        <v>0.7162032497060732</v>
       </c>
       <c r="F106">
-        <v>0.3446348546320998</v>
+        <v>0.3774148708095881</v>
       </c>
       <c r="G106">
-        <v>0.4912412552143985</v>
+        <v>0.1767749970585777</v>
       </c>
       <c r="H106">
-        <v>0.0221926942075826</v>
+        <v>0.1075457670982586</v>
       </c>
       <c r="I106">
-        <v>0.1965382674221374</v>
+        <v>0.007858637029658722</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -3801,31 +3801,31 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>0.04758947646147604</v>
+        <v>0.6063495637837675</v>
       </c>
       <c r="B107">
-        <v>0.8325655924474226</v>
+        <v>0.05818452326696399</v>
       </c>
       <c r="C107">
-        <v>0.3828050381782477</v>
+        <v>0.2180286892131554</v>
       </c>
       <c r="D107">
-        <v>0.2638870043306628</v>
+        <v>0.0353698657494973</v>
       </c>
       <c r="E107">
-        <v>0.5529438235309332</v>
+        <v>0.4718743137858611</v>
       </c>
       <c r="F107">
-        <v>0.1825193514416661</v>
+        <v>0.04827042707159235</v>
       </c>
       <c r="G107">
-        <v>0.07658485361419853</v>
+        <v>0.04610385576183534</v>
       </c>
       <c r="H107">
-        <v>0.04626247248382933</v>
+        <v>0.3485042493037606</v>
       </c>
       <c r="I107">
-        <v>0.7166039735648967</v>
+        <v>0.1387143292807365</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -3833,31 +3833,31 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>0.6420753637535485</v>
+        <v>0.8175434564701466</v>
       </c>
       <c r="B108">
-        <v>0.9367369367862409</v>
+        <v>0.3065157231586138</v>
       </c>
       <c r="C108">
-        <v>0.5756484701689514</v>
+        <v>0.5635403706689414</v>
       </c>
       <c r="D108">
-        <v>0.2003485111235526</v>
+        <v>0.03972609433110563</v>
       </c>
       <c r="E108">
-        <v>0.5066690172747128</v>
+        <v>0.6804051274440162</v>
       </c>
       <c r="F108">
-        <v>0.01627186733288455</v>
+        <v>0.3833807742532708</v>
       </c>
       <c r="G108">
-        <v>0.04973337626676444</v>
+        <v>0.109139432334659</v>
       </c>
       <c r="H108">
-        <v>0.02763005267046233</v>
+        <v>0.2871819900762532</v>
       </c>
       <c r="I108">
-        <v>0.225585372402498</v>
+        <v>0.005548920400233359</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -3865,31 +3865,31 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>0.2974847323551615</v>
+        <v>0.6244940355650223</v>
       </c>
       <c r="B109">
-        <v>0.9438391197367637</v>
+        <v>0.01071183128125408</v>
       </c>
       <c r="C109">
-        <v>0.3846810888361261</v>
+        <v>0.2286682097844891</v>
       </c>
       <c r="D109">
-        <v>0.2879515542314178</v>
+        <v>0.09583012414861103</v>
       </c>
       <c r="E109">
-        <v>0.6036215477624813</v>
+        <v>0.6986787939350541</v>
       </c>
       <c r="F109">
-        <v>0.1180663766411302</v>
+        <v>0.171365163038391</v>
       </c>
       <c r="G109">
-        <v>0.2437717405137884</v>
+        <v>0.05967910840057466</v>
       </c>
       <c r="H109">
-        <v>0.03873884604212489</v>
+        <v>0.2818585477777035</v>
       </c>
       <c r="I109">
-        <v>0.4483316299281757</v>
+        <v>0.1185668238226066</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -3897,31 +3897,31 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>0.5510455969802863</v>
+        <v>0.9915779445179059</v>
       </c>
       <c r="B110">
-        <v>0.5155804690828129</v>
+        <v>0.1883755290033807</v>
       </c>
       <c r="C110">
-        <v>0.6145861351437184</v>
+        <v>0.04364328622229507</v>
       </c>
       <c r="D110">
-        <v>0.2618682099621755</v>
+        <v>0.02401880613675444</v>
       </c>
       <c r="E110">
-        <v>0.3868347431108788</v>
+        <v>0.3781907988063215</v>
       </c>
       <c r="F110">
-        <v>0.6374649550848288</v>
+        <v>0.5477265405854913</v>
       </c>
       <c r="G110">
-        <v>0.3120402524521304</v>
+        <v>0.1534507595415777</v>
       </c>
       <c r="H110">
-        <v>0.0210844530195686</v>
+        <v>0.4447165365052599</v>
       </c>
       <c r="I110">
-        <v>0.5722992912783711</v>
+        <v>0.00894422997512101</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -3929,31 +3929,31 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>0.5636924719018314</v>
+        <v>0.8650404879436682</v>
       </c>
       <c r="B111">
-        <v>0.2474324524567144</v>
+        <v>0.4026287762077728</v>
       </c>
       <c r="C111">
-        <v>0.5646470204330561</v>
+        <v>0.4735202914584231</v>
       </c>
       <c r="D111">
-        <v>0.1709161819682035</v>
+        <v>0.05820734484228807</v>
       </c>
       <c r="E111">
-        <v>0.3140841306997539</v>
+        <v>0.5522725507563263</v>
       </c>
       <c r="F111">
-        <v>0.558237458417587</v>
+        <v>0.1201508068121839</v>
       </c>
       <c r="G111">
-        <v>0.3001310905490945</v>
+        <v>0.1633576714497612</v>
       </c>
       <c r="H111">
-        <v>0.03067970716056697</v>
+        <v>0.339218082753281</v>
       </c>
       <c r="I111">
-        <v>0.414011226835688</v>
+        <v>0.05447030345113346</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -3961,31 +3961,31 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>0.294960370628684</v>
+        <v>0.4568722990652047</v>
       </c>
       <c r="B112">
-        <v>0.5988196363290949</v>
+        <v>0.1640237484961983</v>
       </c>
       <c r="C112">
-        <v>0.1969664953586845</v>
+        <v>0.4479936930044292</v>
       </c>
       <c r="D112">
-        <v>0.1694436389954574</v>
+        <v>0.05993282793777877</v>
       </c>
       <c r="E112">
-        <v>0.3551402693755936</v>
+        <v>0.6804051274440162</v>
       </c>
       <c r="F112">
-        <v>0.2028978661311465</v>
+        <v>0.3833807742532708</v>
       </c>
       <c r="G112">
-        <v>0.4197733253126648</v>
+        <v>0.109139432334659</v>
       </c>
       <c r="H112">
-        <v>0.02838356269468094</v>
+        <v>0.2871819900762532</v>
       </c>
       <c r="I112">
-        <v>0.2906729530360467</v>
+        <v>0.06321153161818116</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -3993,31 +3993,31 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>0.5246366130593509</v>
+        <v>0.656176480443633</v>
       </c>
       <c r="B113">
-        <v>0.6409040907269727</v>
+        <v>0.1134749529923825</v>
       </c>
       <c r="C113">
-        <v>0.557621904931578</v>
+        <v>0.4832174067753607</v>
       </c>
       <c r="D113">
-        <v>0.195881974765088</v>
+        <v>0.1067770482641902</v>
       </c>
       <c r="E113">
-        <v>0.452321659760348</v>
+        <v>0.3881052923149269</v>
       </c>
       <c r="F113">
-        <v>0.3083007458622452</v>
+        <v>0.1395898766818142</v>
       </c>
       <c r="G113">
-        <v>0.3800850739215325</v>
+        <v>0.04608888048165261</v>
       </c>
       <c r="H113">
-        <v>0.01223837429327803</v>
+        <v>0.07406485853703026</v>
       </c>
       <c r="I113">
-        <v>0.5253780228973559</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -4025,31 +4025,31 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>0.2683591773904848</v>
+        <v>0.8940033734753801</v>
       </c>
       <c r="B114">
-        <v>0.1336849316505357</v>
+        <v>0.1159571818233619</v>
       </c>
       <c r="C114">
-        <v>0.4067921619591892</v>
+        <v>0.2889849788235869</v>
       </c>
       <c r="D114">
-        <v>0.08614069686041004</v>
+        <v>0.009226439108837914</v>
       </c>
       <c r="E114">
-        <v>0.2822551987045351</v>
+        <v>0.6650298069072871</v>
       </c>
       <c r="F114">
-        <v>0.1633481059001249</v>
+        <v>0.4534512602479824</v>
       </c>
       <c r="G114">
-        <v>0.3031860469067731</v>
+        <v>0.06611954931686199</v>
       </c>
       <c r="H114">
-        <v>0.001977890614032159</v>
+        <v>0.2308065893799875</v>
       </c>
       <c r="I114">
-        <v>0.2649083446598212</v>
+        <v>0.08029917070923698</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -4057,31 +4057,31 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>0.3133077096154457</v>
+        <v>0.8377670436592983</v>
       </c>
       <c r="B115">
-        <v>0.5331763069485774</v>
+        <v>0.1045592137189955</v>
       </c>
       <c r="C115">
-        <v>0.1856542973611992</v>
+        <v>0.4634264984680266</v>
       </c>
       <c r="D115">
-        <v>0.1778309488065243</v>
+        <v>0.004863365253874208</v>
       </c>
       <c r="E115">
-        <v>0.288557058318209</v>
+        <v>0.5025647268878719</v>
       </c>
       <c r="F115">
-        <v>0.154068063089301</v>
+        <v>0.1554150992444899</v>
       </c>
       <c r="G115">
-        <v>0.1709959192716018</v>
+        <v>0.04610385576183534</v>
       </c>
       <c r="H115">
-        <v>0.04939763354502088</v>
+        <v>0.1113686718360117</v>
       </c>
       <c r="I115">
-        <v>0.1590281097096266</v>
+        <v>0.0750916495871996</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -4089,31 +4089,31 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>0.01239438331968101</v>
+        <v>0.4090386945922139</v>
       </c>
       <c r="B116">
-        <v>0.3742195977597906</v>
+        <v>0.2188722629056375</v>
       </c>
       <c r="C116">
-        <v>0.5505533398643101</v>
+        <v>0.4753498319152212</v>
       </c>
       <c r="D116">
-        <v>0.02768713807701384</v>
+        <v>0.05900772475960991</v>
       </c>
       <c r="E116">
-        <v>0.4025329406400063</v>
+        <v>0.5308711726595686</v>
       </c>
       <c r="F116">
-        <v>0.5373757443003083</v>
+        <v>0.5268101410052475</v>
       </c>
       <c r="G116">
-        <v>0.5083075569459413</v>
+        <v>0.1218479364439746</v>
       </c>
       <c r="H116">
-        <v>0.02858653071067502</v>
+        <v>0.3070290845532873</v>
       </c>
       <c r="I116">
-        <v>0.5501460973425104</v>
+        <v>0.06527682876693963</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -4121,31 +4121,31 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <v>0.6516534882972487</v>
+        <v>0.5307710692136363</v>
       </c>
       <c r="B117">
-        <v>0.701059864036952</v>
+        <v>0.08549122146962207</v>
       </c>
       <c r="C117">
-        <v>0.2014620133603562</v>
+        <v>0.4396299598826529</v>
       </c>
       <c r="D117">
-        <v>0.06982434814860228</v>
+        <v>0.05415500192138767</v>
       </c>
       <c r="E117">
-        <v>0.5520790538206469</v>
+        <v>0.6158687448832619</v>
       </c>
       <c r="F117">
-        <v>0.1306619475112169</v>
+        <v>0.04146400436122577</v>
       </c>
       <c r="G117">
-        <v>0.06789176824312537</v>
+        <v>0.1549257747614103</v>
       </c>
       <c r="H117">
-        <v>0.03195567739828859</v>
+        <v>0.07538981780284237</v>
       </c>
       <c r="I117">
-        <v>0.5903740191942117</v>
+        <v>0.01782830777327971</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -4153,31 +4153,31 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <v>0.6008947911338282</v>
+        <v>0.9672332408855344</v>
       </c>
       <c r="B118">
-        <v>0.1738030905200164</v>
+        <v>0.1519277333349992</v>
       </c>
       <c r="C118">
-        <v>0.6368173561922383</v>
+        <v>0.04832720718814919</v>
       </c>
       <c r="D118">
-        <v>0.1154065401860026</v>
+        <v>0.05350263522791587</v>
       </c>
       <c r="E118">
-        <v>0.4898873295650776</v>
+        <v>0.4801968349473042</v>
       </c>
       <c r="F118">
-        <v>0.1956523794720119</v>
+        <v>0.2761576000296493</v>
       </c>
       <c r="G118">
-        <v>0.2570982189515435</v>
+        <v>0.07031928877135946</v>
       </c>
       <c r="H118">
-        <v>0.02670007697996942</v>
+        <v>0.2451949231788805</v>
       </c>
       <c r="I118">
-        <v>0.2224714879868387</v>
+        <v>0.08573650962603974</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -4185,31 +4185,31 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>0.2094382714735011</v>
+        <v>0.656176480443633</v>
       </c>
       <c r="B119">
-        <v>0.4812591972348125</v>
+        <v>0.08804000929810496</v>
       </c>
       <c r="C119">
-        <v>0.4322305795574839</v>
+        <v>0.3553190878636137</v>
       </c>
       <c r="D119">
-        <v>0.4313101861170746</v>
+        <v>0.04207889750919569</v>
       </c>
       <c r="E119">
-        <v>0.4146546094596461</v>
+        <v>0.7037758519945256</v>
       </c>
       <c r="F119">
-        <v>0.6636104381816539</v>
+        <v>0.4534512602479824</v>
       </c>
       <c r="G119">
-        <v>0.2463672222137145</v>
+        <v>0.06611954931686199</v>
       </c>
       <c r="H119">
-        <v>0.02475430541643179</v>
+        <v>0.01979692677191447</v>
       </c>
       <c r="I119">
-        <v>0.3485559690882179</v>
+        <v>0.1229534323214314</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -4217,31 +4217,31 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>0.1341408349308983</v>
+        <v>0.598258414308015</v>
       </c>
       <c r="B120">
-        <v>0.2169581891237231</v>
+        <v>0.305734763413423</v>
       </c>
       <c r="C120">
-        <v>0.5616022722664855</v>
+        <v>0.09983304010820281</v>
       </c>
       <c r="D120">
-        <v>0.1047567189014305</v>
+        <v>0.09987326215391779</v>
       </c>
       <c r="E120">
-        <v>0.6709691337052062</v>
+        <v>0.620303786712439</v>
       </c>
       <c r="F120">
-        <v>0.1335017333488563</v>
+        <v>0.5522795547634165</v>
       </c>
       <c r="G120">
-        <v>0.1305119265997884</v>
+        <v>0.04751288016470036</v>
       </c>
       <c r="H120">
-        <v>0.02006609413307109</v>
+        <v>0.2557394181863878</v>
       </c>
       <c r="I120">
-        <v>0.2662655301837287</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -4249,31 +4249,31 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>0.0159443070216172</v>
+        <v>0.833121222357907</v>
       </c>
       <c r="B121">
-        <v>0.9530770329776577</v>
+        <v>0.3836690946014429</v>
       </c>
       <c r="C121">
-        <v>0.1209710650739132</v>
+        <v>0.05023500081838671</v>
       </c>
       <c r="D121">
-        <v>0.4093201589343305</v>
+        <v>0.07186351401156499</v>
       </c>
       <c r="E121">
-        <v>0.4247267066582927</v>
+        <v>0.637341293062102</v>
       </c>
       <c r="F121">
-        <v>0.3795546222602306</v>
+        <v>0.09561936547683358</v>
       </c>
       <c r="G121">
-        <v>0.4091979692752754</v>
+        <v>0.1325135808741219</v>
       </c>
       <c r="H121">
-        <v>0.04621286040944195</v>
+        <v>0.1908614749811089</v>
       </c>
       <c r="I121">
-        <v>0.6483904840251798</v>
+        <v>0.08222408333564402</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -4281,31 +4281,31 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>0.2213509250249843</v>
+        <v>0.8062099447947237</v>
       </c>
       <c r="B122">
-        <v>0.9764865423483902</v>
+        <v>0.267110708655972</v>
       </c>
       <c r="C122">
-        <v>0.1764204630837841</v>
+        <v>0.3766112647265045</v>
       </c>
       <c r="D122">
-        <v>0.3675443721783971</v>
+        <v>0.02004944108896778</v>
       </c>
       <c r="E122">
-        <v>0.6981120686861145</v>
+        <v>0.4861298197916663</v>
       </c>
       <c r="F122">
-        <v>0.1641438356104919</v>
+        <v>0.04509193071966855</v>
       </c>
       <c r="G122">
-        <v>0.3886289612594633</v>
+        <v>0.06756030095140717</v>
       </c>
       <c r="H122">
-        <v>0.02837141651622456</v>
+        <v>0.2894160976112863</v>
       </c>
       <c r="I122">
-        <v>0.6154514643662768</v>
+        <v>0.01782830777327971</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -4313,31 +4313,31 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>0.2348217727397789</v>
+        <v>0.8108718524745734</v>
       </c>
       <c r="B123">
-        <v>0.5309102765819368</v>
+        <v>0.3161252286505334</v>
       </c>
       <c r="C123">
-        <v>0.5821914858032859</v>
+        <v>0.4815002611209022</v>
       </c>
       <c r="D123">
-        <v>0.07140762361763675</v>
+        <v>0.0122791416269612</v>
       </c>
       <c r="E123">
-        <v>0.3371546093901691</v>
+        <v>0.5021737082551389</v>
       </c>
       <c r="F123">
-        <v>0.2670546599871879</v>
+        <v>0.09561936547683358</v>
       </c>
       <c r="G123">
-        <v>0.3495090258345276</v>
+        <v>0.1325135808741219</v>
       </c>
       <c r="H123">
-        <v>0.04220164655705274</v>
+        <v>0.3289744292998436</v>
       </c>
       <c r="I123">
-        <v>0.359982973899776</v>
+        <v>0.01490654413212378</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -4345,31 +4345,31 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>0.3536412157984742</v>
+        <v>0.5732524097773848</v>
       </c>
       <c r="B124">
-        <v>0.2213886970952925</v>
+        <v>0.3704577462882584</v>
       </c>
       <c r="C124">
-        <v>0.1447518553491994</v>
+        <v>0.1788148124473915</v>
       </c>
       <c r="D124">
-        <v>0.03841891305333167</v>
+        <v>0.05415500192138767</v>
       </c>
       <c r="E124">
-        <v>0.6378639490885458</v>
+        <v>0.6072951636743021</v>
       </c>
       <c r="F124">
-        <v>0.1994396344890318</v>
+        <v>0.09561936547683358</v>
       </c>
       <c r="G124">
-        <v>0.1731587124081098</v>
+        <v>0.1325135808741219</v>
       </c>
       <c r="H124">
-        <v>0.02188852589782435</v>
+        <v>0.4253329815263508</v>
       </c>
       <c r="I124">
-        <v>0.3930444916158229</v>
+        <v>0.02116424424469165</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -4377,31 +4377,31 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>0.5937632136999371</v>
+        <v>0.3770258785324855</v>
       </c>
       <c r="B125">
-        <v>0.9594403238884487</v>
+        <v>0.2713086442309993</v>
       </c>
       <c r="C125">
-        <v>0.2342020147082372</v>
+        <v>0.1128873335458398</v>
       </c>
       <c r="D125">
-        <v>0.1901516239799677</v>
+        <v>0.08267032763321802</v>
       </c>
       <c r="E125">
-        <v>0.2585807938808289</v>
+        <v>0.4047953009846466</v>
       </c>
       <c r="F125">
-        <v>0.4203662537064145</v>
+        <v>0.3838834097494934</v>
       </c>
       <c r="G125">
-        <v>0.1602096637953589</v>
+        <v>0.1395415878813417</v>
       </c>
       <c r="H125">
-        <v>0.02130375157547411</v>
+        <v>0.1931646106973784</v>
       </c>
       <c r="I125">
-        <v>0.3544544817193996</v>
+        <v>0.006449181865959108</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -4409,31 +4409,31 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>0.1413416306666975</v>
+        <v>0.6630346064536506</v>
       </c>
       <c r="B126">
-        <v>0.2333482693877386</v>
+        <v>0.2319996427219312</v>
       </c>
       <c r="C126">
-        <v>0.5381390838075046</v>
+        <v>0.5457109069451546</v>
       </c>
       <c r="D126">
-        <v>0.4210645225299003</v>
+        <v>0.05415500192138767</v>
       </c>
       <c r="E126">
-        <v>0.3277722640578417</v>
+        <v>0.6158687448832619</v>
       </c>
       <c r="F126">
-        <v>0.1116509285988565</v>
+        <v>0.04146400436122577</v>
       </c>
       <c r="G126">
-        <v>0.1796786060634237</v>
+        <v>0.1549257747614103</v>
       </c>
       <c r="H126">
-        <v>0.008495931041883408</v>
+        <v>0.07538981780284237</v>
       </c>
       <c r="I126">
-        <v>0.0877467551912806</v>
+        <v>0.01782830777327971</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -4441,31 +4441,31 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>0.3288908920532249</v>
+        <v>0.9381041691038856</v>
       </c>
       <c r="B127">
-        <v>0.1590096511472027</v>
+        <v>0.4222077941777839</v>
       </c>
       <c r="C127">
-        <v>0.5531511011264946</v>
+        <v>0.1033608378235069</v>
       </c>
       <c r="D127">
-        <v>0.4547706644211075</v>
+        <v>0.06620995811107921</v>
       </c>
       <c r="E127">
-        <v>0.6589729648113591</v>
+        <v>0.3894943245159051</v>
       </c>
       <c r="F127">
-        <v>0.4200601412620608</v>
+        <v>0.06847059216444651</v>
       </c>
       <c r="G127">
-        <v>0.2944822936012533</v>
+        <v>0.0744324012179957</v>
       </c>
       <c r="H127">
-        <v>0.04706572707910708</v>
+        <v>0.2168732695633043</v>
       </c>
       <c r="I127">
-        <v>0.6702166659137535</v>
+        <v>0.1003642812513451</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -4473,31 +4473,31 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <v>0.5582056206093052</v>
+        <v>0.6292476373982135</v>
       </c>
       <c r="B128">
-        <v>0.2232534819424371</v>
+        <v>0.2719250130200773</v>
       </c>
       <c r="C128">
-        <v>0.4658249815070369</v>
+        <v>0.3651676430659128</v>
       </c>
       <c r="D128">
-        <v>0.2367522807848133</v>
+        <v>0.05398946621078804</v>
       </c>
       <c r="E128">
-        <v>0.2925266757270585</v>
+        <v>0.4848010857334619</v>
       </c>
       <c r="F128">
-        <v>0.2510666874865691</v>
+        <v>0.03240751989577151</v>
       </c>
       <c r="G128">
-        <v>0.03152633253434423</v>
+        <v>0.1108161629369486</v>
       </c>
       <c r="H128">
-        <v>0.04667801504088962</v>
+        <v>0.009261086142789532</v>
       </c>
       <c r="I128">
-        <v>0.5975054201449048</v>
+        <v>0.1003642812513451</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -4505,31 +4505,31 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>0.393256958561529</v>
+        <v>0.4993230069767729</v>
       </c>
       <c r="B129">
-        <v>0.4623747247867829</v>
+        <v>0.2449486690434061</v>
       </c>
       <c r="C129">
-        <v>0.1845266543892253</v>
+        <v>0.3909164911595137</v>
       </c>
       <c r="D129">
-        <v>0.3626934708103123</v>
+        <v>0.03476959163700666</v>
       </c>
       <c r="E129">
-        <v>0.3144727755581765</v>
+        <v>0.377662392828478</v>
       </c>
       <c r="F129">
-        <v>0.4078312955649467</v>
+        <v>0.2067841792826804</v>
       </c>
       <c r="G129">
-        <v>0.1940956422461263</v>
+        <v>0.09040869303615984</v>
       </c>
       <c r="H129">
-        <v>0.002984034795195089</v>
+        <v>0.162715527549859</v>
       </c>
       <c r="I129">
-        <v>0.6764608595559585</v>
+        <v>0.1142735425269507</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -4537,31 +4537,31 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>0.4588840097948995</v>
+        <v>0.9375815503695047</v>
       </c>
       <c r="B130">
-        <v>0.5809311182251363</v>
+        <v>0.06904352185715612</v>
       </c>
       <c r="C130">
-        <v>0.561725171777292</v>
+        <v>0.20541221608487</v>
       </c>
       <c r="D130">
-        <v>0.1012847937051771</v>
+        <v>0.01600442878341168</v>
       </c>
       <c r="E130">
-        <v>0.671310191538073</v>
+        <v>0.7109577526963464</v>
       </c>
       <c r="F130">
-        <v>0.2512743291323355</v>
+        <v>0.3131041795035939</v>
       </c>
       <c r="G130">
-        <v>0.1892707217234346</v>
+        <v>0.05645348943630885</v>
       </c>
       <c r="H130">
-        <v>0.01824559622442746</v>
+        <v>0.4380762462448965</v>
       </c>
       <c r="I130">
-        <v>0.5773068338638478</v>
+        <v>0.119812588214651</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -4569,31 +4569,31 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>0.2807480796172978</v>
+        <v>0.796070324491301</v>
       </c>
       <c r="B131">
-        <v>0.7695280756961785</v>
+        <v>0.1987024116779612</v>
       </c>
       <c r="C131">
-        <v>0.3461419464917104</v>
+        <v>0.4982498996144043</v>
       </c>
       <c r="D131">
-        <v>0.3491301299206236</v>
+        <v>0.0857035733258491</v>
       </c>
       <c r="E131">
-        <v>0.2440696659118897</v>
+        <v>0.6233349799075227</v>
       </c>
       <c r="F131">
-        <v>0.6784088220754639</v>
+        <v>0.2856141139135869</v>
       </c>
       <c r="G131">
-        <v>0.03614465970624003</v>
+        <v>0.1771704358695389</v>
       </c>
       <c r="H131">
-        <v>0.0165371795651425</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I131">
-        <v>0.3383592134263082</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -4601,31 +4601,31 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
-        <v>0.2004182141092012</v>
+        <v>0.8739061082393774</v>
       </c>
       <c r="B132">
-        <v>0.1376193640528254</v>
+        <v>0.2016849125102006</v>
       </c>
       <c r="C132">
-        <v>0.3928135427513963</v>
+        <v>0.1119614318657254</v>
       </c>
       <c r="D132">
-        <v>0.3527246947988819</v>
+        <v>0.09754697147164182</v>
       </c>
       <c r="E132">
-        <v>0.6461403506399059</v>
+        <v>0.6467553563310556</v>
       </c>
       <c r="F132">
-        <v>0.4919902966770888</v>
+        <v>0.1981181152212228</v>
       </c>
       <c r="G132">
-        <v>0.3670699018885727</v>
+        <v>0.1510526283745117</v>
       </c>
       <c r="H132">
-        <v>0.009172136871862309</v>
+        <v>0.01541653768127116</v>
       </c>
       <c r="I132">
-        <v>0.5632540575016651</v>
+        <v>0.06140848714648361</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -4633,31 +4633,31 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>0.2094769402394808</v>
+        <v>0.8042296383831924</v>
       </c>
       <c r="B133">
-        <v>0.9870351034088851</v>
+        <v>0.2755525215896382</v>
       </c>
       <c r="C133">
-        <v>0.3198943352920959</v>
+        <v>0.257700683852955</v>
       </c>
       <c r="D133">
-        <v>0.2484447404048853</v>
+        <v>0.03180051533645856</v>
       </c>
       <c r="E133">
-        <v>0.6289959396140005</v>
+        <v>0.500168335728052</v>
       </c>
       <c r="F133">
-        <v>0.6108123470263361</v>
+        <v>0.3124154586464249</v>
       </c>
       <c r="G133">
-        <v>0.273498433519533</v>
+        <v>0.08722526978686643</v>
       </c>
       <c r="H133">
-        <v>0.03512361193734886</v>
+        <v>0.09774450000134027</v>
       </c>
       <c r="I133">
-        <v>0.3444125527391086</v>
+        <v>0.01951137548373139</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -4665,31 +4665,31 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>0.7207356078596381</v>
+        <v>0.7266640970002189</v>
       </c>
       <c r="B134">
-        <v>0.2829178620936948</v>
+        <v>0.2495794692548832</v>
       </c>
       <c r="C134">
-        <v>0.4983518176982649</v>
+        <v>0.3572979836717748</v>
       </c>
       <c r="D134">
-        <v>0.3381897071409817</v>
+        <v>0.09492305953499602</v>
       </c>
       <c r="E134">
-        <v>0.5203556835717003</v>
+        <v>0.4198217992280371</v>
       </c>
       <c r="F134">
-        <v>0.2865377829620243</v>
+        <v>0.386867844865687</v>
       </c>
       <c r="G134">
-        <v>0.4770373388305095</v>
+        <v>0.09040869303615984</v>
       </c>
       <c r="H134">
-        <v>0.01276737841300344</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I134">
-        <v>0.3435888998514479</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -4697,31 +4697,31 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>0.4878482129777773</v>
+        <v>0.6964339473036809</v>
       </c>
       <c r="B135">
-        <v>0.4896551800195622</v>
+        <v>0.1845200359299135</v>
       </c>
       <c r="C135">
-        <v>0.2240746383479998</v>
+        <v>0.5872813300869855</v>
       </c>
       <c r="D135">
-        <v>0.411078640081</v>
+        <v>0.03858324138586189</v>
       </c>
       <c r="E135">
-        <v>0.536912462646312</v>
+        <v>0.5395966793938629</v>
       </c>
       <c r="F135">
-        <v>0.6073049485218917</v>
+        <v>0.2970340362819299</v>
       </c>
       <c r="G135">
-        <v>0.2652193402132942</v>
+        <v>0.07200485558999538</v>
       </c>
       <c r="H135">
-        <v>0.02585537123808242</v>
+        <v>0.2090256796338708</v>
       </c>
       <c r="I135">
-        <v>0.06290585692288107</v>
+        <v>0.0004140680290427579</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -4729,31 +4729,31 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>0.4657487620881521</v>
+        <v>0.8175434564701466</v>
       </c>
       <c r="B136">
-        <v>0.2877196591792984</v>
+        <v>0.3065157231586138</v>
       </c>
       <c r="C136">
-        <v>0.1407140610189181</v>
+        <v>0.5635403706689414</v>
       </c>
       <c r="D136">
-        <v>0.2601204912701149</v>
+        <v>0.03972609433110563</v>
       </c>
       <c r="E136">
-        <v>0.2619994729047014</v>
+        <v>0.6804051274440162</v>
       </c>
       <c r="F136">
-        <v>0.6450832729764925</v>
+        <v>0.1346571727471465</v>
       </c>
       <c r="G136">
-        <v>0.002198751216692107</v>
+        <v>0.1767749970585777</v>
       </c>
       <c r="H136">
-        <v>0.03878954355181206</v>
+        <v>0.1075457670982586</v>
       </c>
       <c r="I136">
-        <v>0.1694274568009329</v>
+        <v>0.007858637029658722</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -4761,31 +4761,31 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>0.1202564147469597</v>
+        <v>0.5250483198025899</v>
       </c>
       <c r="B137">
-        <v>0.4694815705120836</v>
+        <v>0.004318513734694052</v>
       </c>
       <c r="C137">
-        <v>0.1815462108295573</v>
+        <v>0.2885977722317837</v>
       </c>
       <c r="D137">
-        <v>0.3504721805729522</v>
+        <v>0.007105763435130585</v>
       </c>
       <c r="E137">
-        <v>0.5329094836948494</v>
+        <v>0.6164990552520313</v>
       </c>
       <c r="F137">
-        <v>0.03845919356097115</v>
+        <v>0.2849230802687713</v>
       </c>
       <c r="G137">
-        <v>0.3907721216045915</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H137">
-        <v>0.03657140385581891</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I137">
-        <v>0.282858043564473</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -4793,31 +4793,31 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>0.7283174865189882</v>
+        <v>0.9381041691038856</v>
       </c>
       <c r="B138">
-        <v>0.3779922722905187</v>
+        <v>0.4222077941777839</v>
       </c>
       <c r="C138">
-        <v>0.3075163213469194</v>
+        <v>0.1033608378235069</v>
       </c>
       <c r="D138">
-        <v>0.4534508606067819</v>
+        <v>0.06620995811107921</v>
       </c>
       <c r="E138">
-        <v>0.2820786371074452</v>
+        <v>0.3894943245159051</v>
       </c>
       <c r="F138">
-        <v>0.5538459148156322</v>
+        <v>0.2970340362819299</v>
       </c>
       <c r="G138">
-        <v>0.4289009627917845</v>
+        <v>0.07200485558999538</v>
       </c>
       <c r="H138">
-        <v>0.001633186110340029</v>
+        <v>0.06807136107644329</v>
       </c>
       <c r="I138">
-        <v>0.4874105257989569</v>
+        <v>0.1154971530575994</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -4825,31 +4825,31 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>0.7062322797979567</v>
+        <v>0.8975345221580193</v>
       </c>
       <c r="B139">
-        <v>0.4995368270051557</v>
+        <v>0.3941396777126086</v>
       </c>
       <c r="C139">
-        <v>0.4478816886065348</v>
+        <v>0.3692772134159921</v>
       </c>
       <c r="D139">
-        <v>0.2535730644271562</v>
+        <v>0.1180441074799501</v>
       </c>
       <c r="E139">
-        <v>0.4612091830578076</v>
+        <v>0.3585122274283887</v>
       </c>
       <c r="F139">
-        <v>0.496747257805526</v>
+        <v>0.5532001803025157</v>
       </c>
       <c r="G139">
-        <v>0.1409701107667424</v>
+        <v>0.172286582628471</v>
       </c>
       <c r="H139">
-        <v>0.01173484033922602</v>
+        <v>0.2863458395341646</v>
       </c>
       <c r="I139">
-        <v>0.2654462485685058</v>
+        <v>0.04454872652753383</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -4857,31 +4857,31 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>0.7124045828682575</v>
+        <v>0.8578452777499727</v>
       </c>
       <c r="B140">
-        <v>0.9541049771414317</v>
+        <v>0.05673783317358139</v>
       </c>
       <c r="C140">
-        <v>0.4369236200704171</v>
+        <v>0.5569814974553881</v>
       </c>
       <c r="D140">
-        <v>0.368958378205183</v>
+        <v>0.05590960014190693</v>
       </c>
       <c r="E140">
-        <v>0.5943227097227798</v>
+        <v>0.442850239183939</v>
       </c>
       <c r="F140">
-        <v>0.2009461224743466</v>
+        <v>0.5090052045764848</v>
       </c>
       <c r="G140">
-        <v>0.364200918072525</v>
+        <v>0.172286582628471</v>
       </c>
       <c r="H140">
-        <v>0.03508819453895255</v>
+        <v>0.1201629809326598</v>
       </c>
       <c r="I140">
-        <v>0.6139963703994453</v>
+        <v>0.08650058605134958</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -4889,31 +4889,31 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>0.5607790919460252</v>
+        <v>0.4993230069767729</v>
       </c>
       <c r="B141">
-        <v>0.6845457144395084</v>
+        <v>0.2449486690434061</v>
       </c>
       <c r="C141">
-        <v>0.5239102884691147</v>
+        <v>0.09090719827244452</v>
       </c>
       <c r="D141">
-        <v>0.06778394773320617</v>
+        <v>0.09255767893154654</v>
       </c>
       <c r="E141">
-        <v>0.5327262014824543</v>
+        <v>0.6123293429022993</v>
       </c>
       <c r="F141">
-        <v>0.1754715506660538</v>
+        <v>0.4641710002962356</v>
       </c>
       <c r="G141">
-        <v>0.1303494357473036</v>
+        <v>0.0744324012179957</v>
       </c>
       <c r="H141">
-        <v>0.05858300740909357</v>
+        <v>0.2168732695633043</v>
       </c>
       <c r="I141">
-        <v>0.1742025529508039</v>
+        <v>0.1142735425269507</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -4921,31 +4921,31 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>0.43304232317594</v>
+        <v>0.9125602785006272</v>
       </c>
       <c r="B142">
-        <v>0.2956945965754694</v>
+        <v>0.1347961933525619</v>
       </c>
       <c r="C142">
-        <v>0.2385806421278674</v>
+        <v>0.1581274222820583</v>
       </c>
       <c r="D142">
-        <v>0.1666677679810289</v>
+        <v>0.01896904738377692</v>
       </c>
       <c r="E142">
-        <v>0.35075114883874</v>
+        <v>0.4448481897878376</v>
       </c>
       <c r="F142">
-        <v>0.2287816157383968</v>
+        <v>0.05901035819745182</v>
       </c>
       <c r="G142">
-        <v>0.1724497685822001</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H142">
-        <v>0.05111543061167564</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I142">
-        <v>0.1099609111791096</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -4953,31 +4953,31 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>0.5850798234727912</v>
+        <v>0.8630040101258503</v>
       </c>
       <c r="B143">
-        <v>0.8893562979002975</v>
+        <v>0.3275947987529135</v>
       </c>
       <c r="C143">
-        <v>0.427848187295475</v>
+        <v>0.4454818345132623</v>
       </c>
       <c r="D143">
-        <v>0.3978806290349676</v>
+        <v>0.08226121745953463</v>
       </c>
       <c r="E143">
-        <v>0.4149433802035453</v>
+        <v>0.4750533449634355</v>
       </c>
       <c r="F143">
-        <v>0.6954481092233593</v>
+        <v>0.3833807742532708</v>
       </c>
       <c r="G143">
-        <v>0.3805452269096262</v>
+        <v>0.109139432334659</v>
       </c>
       <c r="H143">
-        <v>0.03681625612190791</v>
+        <v>0.2871819900762532</v>
       </c>
       <c r="I143">
-        <v>0.3991682752700622</v>
+        <v>0.06321153161818116</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -4985,31 +4985,31 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>0.6403446257192856</v>
+        <v>0.5110618738069</v>
       </c>
       <c r="B144">
-        <v>0.4735340524793907</v>
+        <v>0.2286116941354827</v>
       </c>
       <c r="C144">
-        <v>0.3833818632757696</v>
+        <v>0.5075949294304354</v>
       </c>
       <c r="D144">
-        <v>0.4247479259936948</v>
+        <v>0.0857035733258491</v>
       </c>
       <c r="E144">
-        <v>0.4441939625734078</v>
+        <v>0.6233349799075227</v>
       </c>
       <c r="F144">
-        <v>0.4519233093047001</v>
+        <v>0.2856141139135869</v>
       </c>
       <c r="G144">
-        <v>0.452258330588493</v>
+        <v>0.1771704358695389</v>
       </c>
       <c r="H144">
-        <v>0.05853358337525626</v>
+        <v>0.07428478543813577</v>
       </c>
       <c r="I144">
-        <v>0.2172270881375424</v>
+        <v>0.04033666541936987</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -5017,31 +5017,31 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>0.153842724361834</v>
+        <v>0.6165211169778876</v>
       </c>
       <c r="B145">
-        <v>0.6463108299020128</v>
+        <v>0.01320474776295155</v>
       </c>
       <c r="C145">
-        <v>0.1563408224149977</v>
+        <v>0.3021047381743504</v>
       </c>
       <c r="D145">
-        <v>0.0197664523268668</v>
+        <v>0.05421062888491179</v>
       </c>
       <c r="E145">
-        <v>0.5709975040537386</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F145">
-        <v>0.01563894990769565</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G145">
-        <v>0.1453881363864828</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H145">
-        <v>0.01076280808654216</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I145">
-        <v>0.08404555368715026</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -5049,31 +5049,31 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>0.3815395269358562</v>
+        <v>0.5694877946619571</v>
       </c>
       <c r="B146">
-        <v>0.4335676148343895</v>
+        <v>0.3422642973437473</v>
       </c>
       <c r="C146">
-        <v>0.1579770412224654</v>
+        <v>0.3766112647265045</v>
       </c>
       <c r="D146">
-        <v>0.4465531091777668</v>
+        <v>0.02004944108896778</v>
       </c>
       <c r="E146">
-        <v>0.4879613699520752</v>
+        <v>0.4861298197916663</v>
       </c>
       <c r="F146">
-        <v>0.550745482546445</v>
+        <v>0.04509193071966855</v>
       </c>
       <c r="G146">
-        <v>0.08325780647120162</v>
+        <v>0.06756030095140717</v>
       </c>
       <c r="H146">
-        <v>0.02543341909698945</v>
+        <v>0.09081517700297093</v>
       </c>
       <c r="I146">
-        <v>0.3348102428898403</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -5081,31 +5081,31 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>0.3841103534930165</v>
+        <v>0.4496963732200558</v>
       </c>
       <c r="B147">
-        <v>0.2723638027395726</v>
+        <v>0.2156125210684968</v>
       </c>
       <c r="C147">
-        <v>0.2785652960792372</v>
+        <v>0.06106865951626905</v>
       </c>
       <c r="D147">
-        <v>0.3069782041040207</v>
+        <v>0.0409102505704142</v>
       </c>
       <c r="E147">
-        <v>0.4482273160722039</v>
+        <v>0.5213895877002976</v>
       </c>
       <c r="F147">
-        <v>0.003368464293942552</v>
+        <v>0.2611687385369056</v>
       </c>
       <c r="G147">
-        <v>0.1906156579759367</v>
+        <v>0.08208466527049658</v>
       </c>
       <c r="H147">
-        <v>0.04920198481848782</v>
+        <v>0.2172498756355623</v>
       </c>
       <c r="I147">
-        <v>0.6392528562362515</v>
+        <v>0.03170452481892494</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -5113,31 +5113,31 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>0.5340460352864771</v>
+        <v>0.3808685485816262</v>
       </c>
       <c r="B148">
-        <v>0.2542249730237166</v>
+        <v>0.1666138599377978</v>
       </c>
       <c r="C148">
-        <v>0.4300415407799425</v>
+        <v>0.2730933431671558</v>
       </c>
       <c r="D148">
-        <v>0.04851118306356228</v>
+        <v>0.0353698657494973</v>
       </c>
       <c r="E148">
-        <v>0.3763961737404066</v>
+        <v>0.4718743137858611</v>
       </c>
       <c r="F148">
-        <v>0.4086108317823816</v>
+        <v>0.04827042707159235</v>
       </c>
       <c r="G148">
-        <v>0.3962792096022252</v>
+        <v>0.04610385576183534</v>
       </c>
       <c r="H148">
-        <v>0.003332251007417707</v>
+        <v>0.3485042493037606</v>
       </c>
       <c r="I148">
-        <v>0.5063257010675386</v>
+        <v>0.1387143292807365</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -5145,31 +5145,31 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>0.6678252725923698</v>
+        <v>0.9125602785006272</v>
       </c>
       <c r="B149">
-        <v>0.4207873373459931</v>
+        <v>0.1347961933525619</v>
       </c>
       <c r="C149">
-        <v>0.5949073096922909</v>
+        <v>0.1581274222820583</v>
       </c>
       <c r="D149">
-        <v>0.1730521544157363</v>
+        <v>0.01896904738377692</v>
       </c>
       <c r="E149">
-        <v>0.2516536224853655</v>
+        <v>0.7231626961597017</v>
       </c>
       <c r="F149">
-        <v>0.5342230653076827</v>
+        <v>0.4456848337658703</v>
       </c>
       <c r="G149">
-        <v>0.01173299663202021</v>
+        <v>0.1431778225135035</v>
       </c>
       <c r="H149">
-        <v>0.06023161711706645</v>
+        <v>0.04225357641531569</v>
       </c>
       <c r="I149">
-        <v>0.177523681417181</v>
+        <v>0.009214482005096225</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -5177,31 +5177,31 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>0.05288864246942482</v>
+        <v>0.9302283862978866</v>
       </c>
       <c r="B150">
-        <v>0.9625817073965781</v>
+        <v>0.206586305222515</v>
       </c>
       <c r="C150">
-        <v>0.6273186032483996</v>
+        <v>0.1410863590727646</v>
       </c>
       <c r="D150">
-        <v>0.356917632960767</v>
+        <v>0.02169378948736145</v>
       </c>
       <c r="E150">
-        <v>0.6559539033303022</v>
+        <v>0.6158687448832619</v>
       </c>
       <c r="F150">
-        <v>0.06433810804947447</v>
+        <v>0.04146400436122577</v>
       </c>
       <c r="G150">
-        <v>0.4761389868853361</v>
+        <v>0.1549257747614103</v>
       </c>
       <c r="H150">
-        <v>0.008877250171512982</v>
+        <v>0.07538981780284237</v>
       </c>
       <c r="I150">
-        <v>0.2211904674553372</v>
+        <v>0.01782830777327971</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -5209,31 +5209,31 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>0.3962221250719375</v>
+        <v>0.8314034891533589</v>
       </c>
       <c r="B151">
-        <v>0.7411860650030163</v>
+        <v>0.1120911100360709</v>
       </c>
       <c r="C151">
-        <v>0.2216022367895953</v>
+        <v>0.590568147130643</v>
       </c>
       <c r="D151">
-        <v>0.2347086222100715</v>
+        <v>0.04058895575551413</v>
       </c>
       <c r="E151">
-        <v>0.6324392591249131</v>
+        <v>0.5862272202678925</v>
       </c>
       <c r="F151">
-        <v>0.1962151912714142</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G151">
-        <v>0.2430200731825336</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H151">
-        <v>0.03463997637040307</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I151">
-        <v>0.2511102988943586</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -5241,31 +5241,31 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>0.0167454262606398</v>
+        <v>0.6277919657160022</v>
       </c>
       <c r="B152">
-        <v>0.4720472987788071</v>
+        <v>0.4213468173685159</v>
       </c>
       <c r="C152">
-        <v>0.1802565646886129</v>
+        <v>0.5420762895465296</v>
       </c>
       <c r="D152">
-        <v>0.3199092456972958</v>
+        <v>0.03304383034078373</v>
       </c>
       <c r="E152">
-        <v>0.4275651314091579</v>
+        <v>0.5722021577599786</v>
       </c>
       <c r="F152">
-        <v>0.5558354769201018</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G152">
-        <v>0.2887464322387396</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H152">
-        <v>0.01316180648601966</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I152">
-        <v>0.4598042922885269</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -5273,31 +5273,31 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>0.2309431530615724</v>
+        <v>0.438068397306574</v>
       </c>
       <c r="B153">
-        <v>0.7576029494187142</v>
+        <v>0.02805880862295329</v>
       </c>
       <c r="C153">
-        <v>0.3379869114713098</v>
+        <v>0.1907655516981631</v>
       </c>
       <c r="D153">
-        <v>0.2446413425113152</v>
+        <v>0.03113238344668501</v>
       </c>
       <c r="E153">
-        <v>0.3092806230700783</v>
+        <v>0.5573851696665976</v>
       </c>
       <c r="F153">
-        <v>0.5544459433033467</v>
+        <v>0.3971620968432676</v>
       </c>
       <c r="G153">
-        <v>0.4860643369509297</v>
+        <v>0.1325135808741219</v>
       </c>
       <c r="H153">
-        <v>0.01393360163879804</v>
+        <v>0.4253329815263508</v>
       </c>
       <c r="I153">
-        <v>0.04578835918093881</v>
+        <v>0.1006413484653108</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -5305,31 +5305,31 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>0.3809446358572726</v>
+        <v>0.7867996158490835</v>
       </c>
       <c r="B154">
-        <v>0.5089488247226218</v>
+        <v>0.08678221590641333</v>
       </c>
       <c r="C154">
-        <v>0.3542506883149387</v>
+        <v>0.1699995341747708</v>
       </c>
       <c r="D154">
-        <v>0.03717822888056799</v>
+        <v>0.07900360051636957</v>
       </c>
       <c r="E154">
-        <v>0.4456092931726836</v>
+        <v>0.6659482963113227</v>
       </c>
       <c r="F154">
-        <v>0.6823898477154332</v>
+        <v>0.4769881408737631</v>
       </c>
       <c r="G154">
-        <v>0.2987849619399022</v>
+        <v>0.1063371943177239</v>
       </c>
       <c r="H154">
-        <v>0.01767648441168253</v>
+        <v>0.2341248298915537</v>
       </c>
       <c r="I154">
-        <v>0.6123145768466157</v>
+        <v>0.09632078131221722</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -5337,31 +5337,31 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>0.2428762783360646</v>
+        <v>0.5493904732188003</v>
       </c>
       <c r="B155">
-        <v>0.1786446469232691</v>
+        <v>0.2041677731775741</v>
       </c>
       <c r="C155">
-        <v>0.2342020147082372</v>
+        <v>0.1242946547036436</v>
       </c>
       <c r="D155">
-        <v>0.1901516239799677</v>
+        <v>0.0779277300563137</v>
       </c>
       <c r="E155">
-        <v>0.2585807938808289</v>
+        <v>0.3927311590213833</v>
       </c>
       <c r="F155">
-        <v>0.4203662537064145</v>
+        <v>0.04849197857168974</v>
       </c>
       <c r="G155">
-        <v>0.1602096637953589</v>
+        <v>0.07533225489198758</v>
       </c>
       <c r="H155">
-        <v>0.02130375157547411</v>
+        <v>0.0006566467448967384</v>
       </c>
       <c r="I155">
-        <v>0.3424525867599057</v>
+        <v>0.06689334759252852</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -5369,31 +5369,31 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>0.328734256585805</v>
+        <v>0.5709778226094937</v>
       </c>
       <c r="B156">
-        <v>0.5262552612384268</v>
+        <v>0.05119807938762522</v>
       </c>
       <c r="C156">
-        <v>0.2626828278842099</v>
+        <v>0.1537627775893052</v>
       </c>
       <c r="D156">
-        <v>0.08999877990313609</v>
+        <v>0.1048238581377843</v>
       </c>
       <c r="E156">
-        <v>0.2594048438849456</v>
+        <v>0.454077037657888</v>
       </c>
       <c r="F156">
-        <v>0.08004537904292196</v>
+        <v>0.4967283371385496</v>
       </c>
       <c r="G156">
-        <v>0.2051851520895002</v>
+        <v>0.1205499943448626</v>
       </c>
       <c r="H156">
-        <v>0.03010883621843751</v>
+        <v>0.07719909200634745</v>
       </c>
       <c r="I156">
-        <v>0.5502096472588106</v>
+        <v>0.09479963372778222</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -5401,31 +5401,31 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>0.01291897962707322</v>
+        <v>0.4993230069767729</v>
       </c>
       <c r="B157">
-        <v>0.2578627106528546</v>
+        <v>0.2449486690434061</v>
       </c>
       <c r="C157">
-        <v>0.2659157709085072</v>
+        <v>0.09090719827244452</v>
       </c>
       <c r="D157">
-        <v>0.4428530521062521</v>
+        <v>0.09255767893154654</v>
       </c>
       <c r="E157">
-        <v>0.1923368585116967</v>
+        <v>0.6123293429022993</v>
       </c>
       <c r="F157">
-        <v>0.05224180992152615</v>
+        <v>0.4641710002962356</v>
       </c>
       <c r="G157">
-        <v>0.0338844960078758</v>
+        <v>0.0744324012179957</v>
       </c>
       <c r="H157">
-        <v>3.651688377803943E-05</v>
+        <v>0.2168732695633043</v>
       </c>
       <c r="I157">
-        <v>0.06114993478831453</v>
+        <v>0.0750916495871996</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -5433,31 +5433,31 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>0.08619558586917875</v>
+        <v>0.9915779445179059</v>
       </c>
       <c r="B158">
-        <v>0.9376626318738425</v>
+        <v>0.1883755290033807</v>
       </c>
       <c r="C158">
-        <v>0.2628605407693289</v>
+        <v>0.04364328622229507</v>
       </c>
       <c r="D158">
-        <v>0.1194838573881928</v>
+        <v>0.02401880613675444</v>
       </c>
       <c r="E158">
-        <v>0.4563273533471648</v>
+        <v>0.3781907988063215</v>
       </c>
       <c r="F158">
-        <v>0.3536425626008822</v>
+        <v>0.5477265405854913</v>
       </c>
       <c r="G158">
-        <v>0.2177477626823857</v>
+        <v>0.1534507595415777</v>
       </c>
       <c r="H158">
-        <v>0.0442153082140554</v>
+        <v>0.0515339589294781</v>
       </c>
       <c r="I158">
-        <v>0.4900062303043917</v>
+        <v>0.1345601493155864</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -5465,31 +5465,31 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>0.1322346309611143</v>
+        <v>0.6260442485326912</v>
       </c>
       <c r="B159">
-        <v>0.2113756767282043</v>
+        <v>0.1524608020646577</v>
       </c>
       <c r="C159">
-        <v>0.2761581030277338</v>
+        <v>0.3021047381743504</v>
       </c>
       <c r="D159">
-        <v>0.3527246947988819</v>
+        <v>0.05421062888491179</v>
       </c>
       <c r="E159">
-        <v>0.6461403506399059</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F159">
-        <v>0.4919902966770888</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G159">
-        <v>0.3670699018885727</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H159">
-        <v>0.05902188670930111</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I159">
-        <v>0.303002938050657</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -5497,31 +5497,31 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>0.3361135942251819</v>
+        <v>0.722984680447032</v>
       </c>
       <c r="B160">
-        <v>0.4544602142969865</v>
+        <v>0.1159571818233619</v>
       </c>
       <c r="C160">
-        <v>0.2719942863947152</v>
+        <v>0.2889849788235869</v>
       </c>
       <c r="D160">
-        <v>0.1058301257212322</v>
+        <v>0.009226439108837914</v>
       </c>
       <c r="E160">
-        <v>0.1938971603409952</v>
+        <v>0.6986787939350541</v>
       </c>
       <c r="F160">
-        <v>0.6604786183901087</v>
+        <v>0.171365163038391</v>
       </c>
       <c r="G160">
-        <v>0.09380710110427226</v>
+        <v>0.09196125866972892</v>
       </c>
       <c r="H160">
-        <v>0.01333940756812821</v>
+        <v>0.3477664681007134</v>
       </c>
       <c r="I160">
-        <v>0.4904129536017816</v>
+        <v>0.01787251263120815</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -5529,31 +5529,31 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>0.0514609132829057</v>
+        <v>0.8042296383831924</v>
       </c>
       <c r="B161">
-        <v>0.6665924045142058</v>
+        <v>0.2755525215896382</v>
       </c>
       <c r="C161">
-        <v>0.3198223676550845</v>
+        <v>0.3599216660891598</v>
       </c>
       <c r="D161">
-        <v>0.3904399600968974</v>
+        <v>0.08844688318835892</v>
       </c>
       <c r="E161">
-        <v>0.4741207183710769</v>
+        <v>0.4222027325522276</v>
       </c>
       <c r="F161">
-        <v>0.6972624584684709</v>
+        <v>0.4972814869874851</v>
       </c>
       <c r="G161">
-        <v>0.380498471029535</v>
+        <v>0.09040869303615984</v>
       </c>
       <c r="H161">
-        <v>0.007581775979360697</v>
+        <v>0.162715527549859</v>
       </c>
       <c r="I161">
-        <v>0.3076627987991371</v>
+        <v>0.1142735425269507</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -5561,31 +5561,31 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>0.2346006317064249</v>
+        <v>0.3789425241989541</v>
       </c>
       <c r="B162">
-        <v>0.4787336588990651</v>
+        <v>0.1369447543686614</v>
       </c>
       <c r="C162">
-        <v>0.5109574966947857</v>
+        <v>0.3766112647265045</v>
       </c>
       <c r="D162">
-        <v>0.3143955551510814</v>
+        <v>0.02004944108896778</v>
       </c>
       <c r="E162">
-        <v>0.4443339344999885</v>
+        <v>0.4861298197916663</v>
       </c>
       <c r="F162">
-        <v>0.4711749930018083</v>
+        <v>0.04509193071966855</v>
       </c>
       <c r="G162">
-        <v>0.1144443593789947</v>
+        <v>0.06756030095140717</v>
       </c>
       <c r="H162">
-        <v>0.01606387045161655</v>
+        <v>0.09081517700297093</v>
       </c>
       <c r="I162">
-        <v>0.6992658065057756</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -5593,31 +5593,31 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>0.2959750711828925</v>
+        <v>0.8042296383831924</v>
       </c>
       <c r="B163">
-        <v>0.7076116367949717</v>
+        <v>0.2755525215896382</v>
       </c>
       <c r="C163">
-        <v>0.4054505743683767</v>
+        <v>0.3599216660891598</v>
       </c>
       <c r="D163">
-        <v>0.1189040697111685</v>
+        <v>0.08844688318835892</v>
       </c>
       <c r="E163">
-        <v>0.3987777814790727</v>
+        <v>0.6897474782344103</v>
       </c>
       <c r="F163">
-        <v>0.1204664189430476</v>
+        <v>0.1981181152212228</v>
       </c>
       <c r="G163">
-        <v>0.155552228150087</v>
+        <v>0.1510526283745117</v>
       </c>
       <c r="H163">
-        <v>0.01121590071981004</v>
+        <v>0.3215021363157873</v>
       </c>
       <c r="I163">
-        <v>0.6831376136677118</v>
+        <v>0.0808578359842671</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -5625,31 +5625,31 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>0.3078112033888093</v>
+        <v>0.9125602785006272</v>
       </c>
       <c r="B164">
-        <v>0.7283904433923994</v>
+        <v>0.1524608020646577</v>
       </c>
       <c r="C164">
-        <v>0.2214758362427989</v>
+        <v>0.3021047381743504</v>
       </c>
       <c r="D164">
-        <v>0.2222076202293038</v>
+        <v>0.05421062888491179</v>
       </c>
       <c r="E164">
-        <v>0.3225369510227109</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F164">
-        <v>0.0353207469322686</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G164">
-        <v>0.002163401055381375</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H164">
-        <v>0.05415281853152002</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I164">
-        <v>0.6736630584594624</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -5657,31 +5657,31 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>0.04214855523423799</v>
+        <v>0.8108718524745734</v>
       </c>
       <c r="B165">
-        <v>0.2758832484167273</v>
+        <v>0.1640237484961983</v>
       </c>
       <c r="C165">
-        <v>0.5839390780937213</v>
+        <v>0.3469861851421748</v>
       </c>
       <c r="D165">
-        <v>0.079106203846943</v>
+        <v>0.09032345345386006</v>
       </c>
       <c r="E165">
-        <v>0.4253959461626504</v>
+        <v>0.5497400094654263</v>
       </c>
       <c r="F165">
-        <v>0.488723721722961</v>
+        <v>0.2068979848002767</v>
       </c>
       <c r="G165">
-        <v>0.4621254523677636</v>
+        <v>0.07533225489198758</v>
       </c>
       <c r="H165">
-        <v>0.04144233156103797</v>
+        <v>0.0006566467448967384</v>
       </c>
       <c r="I165">
-        <v>0.4813792043221524</v>
+        <v>0.06689334759252852</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -5689,31 +5689,31 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>0.51443818242351</v>
+        <v>0.4482990548896338</v>
       </c>
       <c r="B166">
-        <v>0.7555670986447686</v>
+        <v>0.2516483664296422</v>
       </c>
       <c r="C166">
-        <v>0.5235255957810059</v>
+        <v>0.3468517587206357</v>
       </c>
       <c r="D166">
-        <v>0.2824185515710625</v>
+        <v>0.09304536359331106</v>
       </c>
       <c r="E166">
-        <v>0.3835943175643671</v>
+        <v>0.430133917741657</v>
       </c>
       <c r="F166">
-        <v>0.180907506987801</v>
+        <v>0.1117609434526038</v>
       </c>
       <c r="G166">
-        <v>0.2104752907068461</v>
+        <v>0.05645348943630885</v>
       </c>
       <c r="H166">
-        <v>0.03209865141542656</v>
+        <v>0.4380762462448965</v>
       </c>
       <c r="I166">
-        <v>0.5184751217561334</v>
+        <v>0.119812588214651</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -5721,31 +5721,31 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>0.2384686630255308</v>
+        <v>0.8764093765684482</v>
       </c>
       <c r="B167">
-        <v>0.6499557743943971</v>
+        <v>0.1168864377765746</v>
       </c>
       <c r="C167">
-        <v>0.2387336476176122</v>
+        <v>0.5348287458361863</v>
       </c>
       <c r="D167">
-        <v>0.348873209709277</v>
+        <v>0.03504952830734898</v>
       </c>
       <c r="E167">
-        <v>0.2167164531111017</v>
+        <v>0.6564499034781482</v>
       </c>
       <c r="F167">
-        <v>0.5824464125570251</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G167">
-        <v>0.4102524552807612</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H167">
-        <v>0.01726367106917114</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I167">
-        <v>0.4377423965555515</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -5753,31 +5753,31 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>0.1184954369346524</v>
+        <v>0.996582960298266</v>
       </c>
       <c r="B168">
-        <v>0.733627887531518</v>
+        <v>0.001271932191750591</v>
       </c>
       <c r="C168">
-        <v>0.1967103327652136</v>
+        <v>0.5569814974553881</v>
       </c>
       <c r="D168">
-        <v>0.2099079199273213</v>
+        <v>0.05590960014190693</v>
       </c>
       <c r="E168">
-        <v>0.3390836421781372</v>
+        <v>0.5916528054826143</v>
       </c>
       <c r="F168">
-        <v>0.4016968034767786</v>
+        <v>0.1484598732730088</v>
       </c>
       <c r="G168">
-        <v>0.2163176257312077</v>
+        <v>0.139461779196848</v>
       </c>
       <c r="H168">
-        <v>0.05672521126143329</v>
+        <v>0.3446236739834276</v>
       </c>
       <c r="I168">
-        <v>0.7450614044768628</v>
+        <v>0.07733992889525543</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -5785,31 +5785,31 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>0.1658418971129172</v>
+        <v>0.9319966478582299</v>
       </c>
       <c r="B169">
-        <v>0.248570310196316</v>
+        <v>0.08804000929810496</v>
       </c>
       <c r="C169">
-        <v>0.1672561362383503</v>
+        <v>0.3553190878636137</v>
       </c>
       <c r="D169">
-        <v>0.4268430935303936</v>
+        <v>0.04207889750919569</v>
       </c>
       <c r="E169">
-        <v>0.1853960478250733</v>
+        <v>0.7037758519945256</v>
       </c>
       <c r="F169">
-        <v>0.2960059019151447</v>
+        <v>0.4534512602479824</v>
       </c>
       <c r="G169">
-        <v>0.190116276551849</v>
+        <v>0.1759657701450959</v>
       </c>
       <c r="H169">
-        <v>0.06221745275541496</v>
+        <v>0.07406485853703026</v>
       </c>
       <c r="I169">
-        <v>0.1422027316294488</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -5817,31 +5817,31 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>0.4775591435385947</v>
+        <v>0.9386074406746919</v>
       </c>
       <c r="B170">
-        <v>0.6239162936921561</v>
+        <v>0.267110708655972</v>
       </c>
       <c r="C170">
-        <v>0.4475496717551541</v>
+        <v>0.3766112647265045</v>
       </c>
       <c r="D170">
-        <v>0.3601093757225636</v>
+        <v>0.02004944108896778</v>
       </c>
       <c r="E170">
-        <v>0.339654223226463</v>
+        <v>0.4861298197916663</v>
       </c>
       <c r="F170">
-        <v>0.5304756854787485</v>
+        <v>0.04509193071966855</v>
       </c>
       <c r="G170">
-        <v>0.3194952738499753</v>
+        <v>0.1135885516896711</v>
       </c>
       <c r="H170">
-        <v>0.01609430363483421</v>
+        <v>0.02014872047975425</v>
       </c>
       <c r="I170">
-        <v>0.2163472316221566</v>
+        <v>0.09916959034554296</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -5849,31 +5849,31 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>0.02354846525065191</v>
+        <v>0.8597293493267508</v>
       </c>
       <c r="B171">
-        <v>0.5448473256192604</v>
+        <v>0.08478584094449981</v>
       </c>
       <c r="C171">
-        <v>0.1976564671493587</v>
+        <v>0.3572979836717748</v>
       </c>
       <c r="D171">
-        <v>0.05504769469327686</v>
+        <v>0.04959615969104969</v>
       </c>
       <c r="E171">
-        <v>0.6986233631031576</v>
+        <v>0.5774237130405503</v>
       </c>
       <c r="F171">
-        <v>0.2872170467427567</v>
+        <v>0.477757086173856</v>
       </c>
       <c r="G171">
-        <v>0.1810073538044784</v>
+        <v>0.04608888048165261</v>
       </c>
       <c r="H171">
-        <v>0.03108111281258108</v>
+        <v>0.07406485853703026</v>
       </c>
       <c r="I171">
-        <v>0.4893610805555351</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -5881,31 +5881,31 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
-        <v>0.2728250037442265</v>
+        <v>0.9298233862407602</v>
       </c>
       <c r="B172">
-        <v>0.1600110669576954</v>
+        <v>0.1022499472074671</v>
       </c>
       <c r="C172">
-        <v>0.3426939963708798</v>
+        <v>0.3468517587206357</v>
       </c>
       <c r="D172">
-        <v>0.3825774653931543</v>
+        <v>0.09304536359331106</v>
       </c>
       <c r="E172">
-        <v>0.3752209496884849</v>
+        <v>0.430133917741657</v>
       </c>
       <c r="F172">
-        <v>0.6415566234849636</v>
+        <v>0.1117609434526038</v>
       </c>
       <c r="G172">
-        <v>0.3388429267834284</v>
+        <v>0.07533225489198758</v>
       </c>
       <c r="H172">
-        <v>0.02231863543660877</v>
+        <v>0.0006566467448967384</v>
       </c>
       <c r="I172">
-        <v>0.6926618148020985</v>
+        <v>0.06689334759252852</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -5913,31 +5913,31 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
-        <v>0.4120426621912785</v>
+        <v>0.9733161846787153</v>
       </c>
       <c r="B173">
-        <v>0.4595195040780178</v>
+        <v>0.2071439090581405</v>
       </c>
       <c r="C173">
-        <v>0.4110244225892669</v>
+        <v>0.0594380426775074</v>
       </c>
       <c r="D173">
-        <v>0.1185080235995005</v>
+        <v>0.02004944108896778</v>
       </c>
       <c r="E173">
-        <v>0.5946900165289425</v>
+        <v>0.4861298197916663</v>
       </c>
       <c r="F173">
-        <v>0.1400910698767644</v>
+        <v>0.04509193071966855</v>
       </c>
       <c r="G173">
-        <v>0.1211482799865318</v>
+        <v>0.06756030095140717</v>
       </c>
       <c r="H173">
-        <v>0.03650051572472642</v>
+        <v>0.2671761333508531</v>
       </c>
       <c r="I173">
-        <v>0.03232358657952749</v>
+        <v>0.0240539397540267</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -5945,31 +5945,31 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
-        <v>0.442042981002056</v>
+        <v>0.8042296383831924</v>
       </c>
       <c r="B174">
-        <v>0.6314410519330085</v>
+        <v>0.2755525215896382</v>
       </c>
       <c r="C174">
-        <v>0.6200779949783108</v>
+        <v>0.04749091978479558</v>
       </c>
       <c r="D174">
-        <v>0.2405987026860922</v>
+        <v>0.0857035733258491</v>
       </c>
       <c r="E174">
-        <v>0.6604812363607511</v>
+        <v>0.6233349799075227</v>
       </c>
       <c r="F174">
-        <v>0.01747928459885095</v>
+        <v>0.2856141139135869</v>
       </c>
       <c r="G174">
-        <v>0.162372281471433</v>
+        <v>0.1771704358695389</v>
       </c>
       <c r="H174">
-        <v>0.02302153452550565</v>
+        <v>0.3215021363157873</v>
       </c>
       <c r="I174">
-        <v>0.2413500893790869</v>
+        <v>0.0808578359842671</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -5977,31 +5977,31 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175">
-        <v>0.477354932151967</v>
+        <v>0.8630040101258503</v>
       </c>
       <c r="B175">
-        <v>0.6553837080162357</v>
+        <v>0.3275947987529135</v>
       </c>
       <c r="C175">
-        <v>0.6176584729140554</v>
+        <v>0.4454818345132623</v>
       </c>
       <c r="D175">
-        <v>0.2673948221085609</v>
+        <v>0.03972609433110563</v>
       </c>
       <c r="E175">
-        <v>0.6374215592504602</v>
+        <v>0.6804051274440162</v>
       </c>
       <c r="F175">
-        <v>0.6102364869149409</v>
+        <v>0.4657594779208862</v>
       </c>
       <c r="G175">
-        <v>0.04430433022222524</v>
+        <v>0.09339819161578505</v>
       </c>
       <c r="H175">
-        <v>0.02115627259642287</v>
+        <v>0.3188166231195264</v>
       </c>
       <c r="I175">
-        <v>0.3798122243393588</v>
+        <v>0.08501138150038923</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -6009,31 +6009,31 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176">
-        <v>0.18546393271659</v>
+        <v>0.8175434564701466</v>
       </c>
       <c r="B176">
-        <v>0.3072398101981757</v>
+        <v>0.3065157231586138</v>
       </c>
       <c r="C176">
-        <v>0.2780390118915471</v>
+        <v>0.5635403706689414</v>
       </c>
       <c r="D176">
-        <v>0.02435924029122927</v>
+        <v>0.08226121745953463</v>
       </c>
       <c r="E176">
-        <v>0.6668417985837843</v>
+        <v>0.4750533449634355</v>
       </c>
       <c r="F176">
-        <v>0.6110384920274218</v>
+        <v>0.3833807742532708</v>
       </c>
       <c r="G176">
-        <v>0.4857417914344363</v>
+        <v>0.109139432334659</v>
       </c>
       <c r="H176">
-        <v>0.03798656786200517</v>
+        <v>0.2871819900762532</v>
       </c>
       <c r="I176">
-        <v>0.6687031663163804</v>
+        <v>0.06321153161818116</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -6041,31 +6041,31 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177">
-        <v>0.6138026899050719</v>
+        <v>0.8314034891533589</v>
       </c>
       <c r="B177">
-        <v>0.4572959954736632</v>
+        <v>0.1524608020646577</v>
       </c>
       <c r="C177">
-        <v>0.1625743430719807</v>
+        <v>0.3468517587206357</v>
       </c>
       <c r="D177">
-        <v>0.4107002698805942</v>
+        <v>0.09304536359331106</v>
       </c>
       <c r="E177">
-        <v>0.538482985074334</v>
+        <v>0.430133917741657</v>
       </c>
       <c r="F177">
-        <v>0.6899297642778051</v>
+        <v>0.1117609434526038</v>
       </c>
       <c r="G177">
-        <v>0.04778574181409689</v>
+        <v>0.05645348943630885</v>
       </c>
       <c r="H177">
-        <v>0.04943741547653649</v>
+        <v>0.4380762462448965</v>
       </c>
       <c r="I177">
-        <v>0.4420733794657797</v>
+        <v>0.119812588214651</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -6073,31 +6073,31 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
-        <v>0.04178501100523302</v>
+        <v>0.4482990548896338</v>
       </c>
       <c r="B178">
-        <v>0.1628514216018252</v>
+        <v>0.2516483664296422</v>
       </c>
       <c r="C178">
-        <v>0.492466811092769</v>
+        <v>0.3021047381743504</v>
       </c>
       <c r="D178">
-        <v>0.08578806825992313</v>
+        <v>0.05421062888491179</v>
       </c>
       <c r="E178">
-        <v>0.4507917616830223</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F178">
-        <v>0.3273727535936792</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G178">
-        <v>0.1802175289274137</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H178">
-        <v>0.06307336869127192</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I178">
-        <v>0.05908698377634657</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -6105,31 +6105,31 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179">
-        <v>0.03840258203877855</v>
+        <v>0.5732524097773848</v>
       </c>
       <c r="B179">
-        <v>0.7963396537235233</v>
+        <v>0.3704577462882584</v>
       </c>
       <c r="C179">
-        <v>0.6108546180429498</v>
+        <v>0.1788148124473915</v>
       </c>
       <c r="D179">
-        <v>0.1045230456795131</v>
+        <v>0.05415500192138767</v>
       </c>
       <c r="E179">
-        <v>0.4807663642305646</v>
+        <v>0.6158687448832619</v>
       </c>
       <c r="F179">
-        <v>0.5544542127945085</v>
+        <v>0.04146400436122577</v>
       </c>
       <c r="G179">
-        <v>0.06167481672638497</v>
+        <v>0.09887445608088818</v>
       </c>
       <c r="H179">
-        <v>0.01849500441296794</v>
+        <v>0.071291986220127</v>
       </c>
       <c r="I179">
-        <v>0.4760512262585997</v>
+        <v>0.01635096149658632</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -6137,31 +6137,31 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180">
-        <v>0.2807480796172978</v>
+        <v>0.8383912192772636</v>
       </c>
       <c r="B180">
-        <v>0.7695280756961785</v>
+        <v>0.4020535478517833</v>
       </c>
       <c r="C180">
-        <v>0.3461419464917104</v>
+        <v>0.3692772134159921</v>
       </c>
       <c r="D180">
-        <v>0.3491301299206236</v>
+        <v>0.1180441074799501</v>
       </c>
       <c r="E180">
-        <v>0.1691709374536186</v>
+        <v>0.6492356530721398</v>
       </c>
       <c r="F180">
-        <v>0.3211959692467786</v>
+        <v>0.3064116727024245</v>
       </c>
       <c r="G180">
-        <v>0.2572260756457659</v>
+        <v>0.04608888048165261</v>
       </c>
       <c r="H180">
-        <v>0.06068364209609158</v>
+        <v>0.07406485853703026</v>
       </c>
       <c r="I180">
-        <v>0.6008536288159474</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -6169,31 +6169,31 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181">
-        <v>0.5773080703945894</v>
+        <v>0.9915779445179059</v>
       </c>
       <c r="B181">
-        <v>0.7835766198379169</v>
+        <v>0.1883755290033807</v>
       </c>
       <c r="C181">
-        <v>0.1277868134859062</v>
+        <v>0.04364328622229507</v>
       </c>
       <c r="D181">
-        <v>0.4111840212246063</v>
+        <v>0.02401880613675444</v>
       </c>
       <c r="E181">
-        <v>0.300549485299835</v>
+        <v>0.3781907988063215</v>
       </c>
       <c r="F181">
-        <v>0.01563894990769565</v>
+        <v>0.5477265405854913</v>
       </c>
       <c r="G181">
-        <v>0.1453881363864828</v>
+        <v>0.1534507595415777</v>
       </c>
       <c r="H181">
-        <v>0.01076280808654216</v>
+        <v>0.1945049238654336</v>
       </c>
       <c r="I181">
-        <v>0.08404555368715026</v>
+        <v>0.05310634222702715</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -6201,31 +6201,31 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
-        <v>0.5098090179689991</v>
+        <v>0.8191069590524739</v>
       </c>
       <c r="B182">
-        <v>0.3895936344628311</v>
+        <v>0.1099989890098809</v>
       </c>
       <c r="C182">
-        <v>0.3846810888361261</v>
+        <v>0.1402553673365387</v>
       </c>
       <c r="D182">
-        <v>0.2879515542314178</v>
+        <v>0.01316847926176457</v>
       </c>
       <c r="E182">
-        <v>0.6036215477624813</v>
+        <v>0.4784750708493798</v>
       </c>
       <c r="F182">
-        <v>0.1180663766411302</v>
+        <v>0.1177254077725267</v>
       </c>
       <c r="G182">
-        <v>0.2437717405137884</v>
+        <v>0.03908184017384237</v>
       </c>
       <c r="H182">
-        <v>0.03873884604212489</v>
+        <v>0.09676957663230767</v>
       </c>
       <c r="I182">
-        <v>0.4483316299281757</v>
+        <v>0.007858637029658722</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -6233,31 +6233,31 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
-        <v>0.3408226019289787</v>
+        <v>0.4121419847061234</v>
       </c>
       <c r="B183">
-        <v>0.1523708330086614</v>
+        <v>0.2148796402518531</v>
       </c>
       <c r="C183">
-        <v>0.4605129167572974</v>
+        <v>0.1948329011147953</v>
       </c>
       <c r="D183">
-        <v>0.01991083811278893</v>
+        <v>0.08983756253241393</v>
       </c>
       <c r="E183">
-        <v>0.6662585669518657</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F183">
-        <v>0.6733984586547139</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G183">
-        <v>0.1399438263487857</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H183">
-        <v>0.01583694516083383</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I183">
-        <v>0.1156147725445513</v>
+        <v>0.09957631495673214</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -6265,31 +6265,31 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184">
-        <v>0.5205729847266342</v>
+        <v>0.6128522047540635</v>
       </c>
       <c r="B184">
-        <v>0.4534813599220332</v>
+        <v>0.1058441769696452</v>
       </c>
       <c r="C184">
-        <v>0.2475899217542169</v>
+        <v>0.08027466108528812</v>
       </c>
       <c r="D184">
-        <v>0.02205861636456974</v>
+        <v>0.06019984407659906</v>
       </c>
       <c r="E184">
-        <v>0.3762700368645381</v>
+        <v>0.5357346156742403</v>
       </c>
       <c r="F184">
-        <v>0.6659672632327232</v>
+        <v>0.5132061757609084</v>
       </c>
       <c r="G184">
-        <v>0.1910721392595979</v>
+        <v>0.04608888048165261</v>
       </c>
       <c r="H184">
-        <v>0.05088089044941608</v>
+        <v>0.07406485853703026</v>
       </c>
       <c r="I184">
-        <v>0.452928636750747</v>
+        <v>0.05546975687631117</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -6297,31 +6297,31 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185">
-        <v>0.5230994794296001</v>
+        <v>0.7003910325090367</v>
       </c>
       <c r="B185">
-        <v>0.1074276841654433</v>
+        <v>0.1239578056933952</v>
       </c>
       <c r="C185">
-        <v>0.5646470204330561</v>
+        <v>0.3021047381743504</v>
       </c>
       <c r="D185">
-        <v>0.1709161819682035</v>
+        <v>0.05421062888491179</v>
       </c>
       <c r="E185">
-        <v>0.3140841306997539</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F185">
-        <v>0.558237458417587</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G185">
-        <v>0.3001310905490945</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H185">
-        <v>0.03067970716056697</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I185">
-        <v>0.414011226835688</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -6329,31 +6329,31 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186">
-        <v>0.4429186140507104</v>
+        <v>0.9233415606215903</v>
       </c>
       <c r="B186">
-        <v>0.1860186566553723</v>
+        <v>0.3941396777126086</v>
       </c>
       <c r="C186">
-        <v>0.3019557220994026</v>
+        <v>0.3692772134159921</v>
       </c>
       <c r="D186">
-        <v>0.2410952356721376</v>
+        <v>0.1180441074799501</v>
       </c>
       <c r="E186">
-        <v>0.4844797255514987</v>
+        <v>0.3585122274283887</v>
       </c>
       <c r="F186">
-        <v>0.5020033621862877</v>
+        <v>0.5532001803025157</v>
       </c>
       <c r="G186">
-        <v>0.3380963424847263</v>
+        <v>0.1352339148157282</v>
       </c>
       <c r="H186">
-        <v>0.04730057147679353</v>
+        <v>0.433420514139944</v>
       </c>
       <c r="I186">
-        <v>0.2194556434616445</v>
+        <v>0.09403151217045547</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -6361,31 +6361,31 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187">
-        <v>0.7275716167559478</v>
+        <v>0.3789425241989541</v>
       </c>
       <c r="B187">
-        <v>0.7612558239393267</v>
+        <v>0.1369447543686614</v>
       </c>
       <c r="C187">
-        <v>0.1145518817325932</v>
+        <v>0.5232993736270909</v>
       </c>
       <c r="D187">
-        <v>0.2868693731230627</v>
+        <v>0.01316847926176457</v>
       </c>
       <c r="E187">
-        <v>0.3392364012705621</v>
+        <v>0.4784750708493798</v>
       </c>
       <c r="F187">
-        <v>0.1386974367866971</v>
+        <v>0.2694437881317844</v>
       </c>
       <c r="G187">
-        <v>0.1571957646502761</v>
+        <v>0.04262087964701294</v>
       </c>
       <c r="H187">
-        <v>0.02590585639961316</v>
+        <v>0.1339191031369444</v>
       </c>
       <c r="I187">
-        <v>0.3471406225539981</v>
+        <v>0.03083847241455329</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -6393,31 +6393,31 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188">
-        <v>0.6281511087164954</v>
+        <v>0.7606065550353568</v>
       </c>
       <c r="B188">
-        <v>0.4937261520191718</v>
+        <v>0.07867176120875841</v>
       </c>
       <c r="C188">
-        <v>0.3119264668014843</v>
+        <v>0.2767838903042928</v>
       </c>
       <c r="D188">
-        <v>0.1717367743018341</v>
+        <v>0.1039237883680918</v>
       </c>
       <c r="E188">
-        <v>0.1872122725144671</v>
+        <v>0.4489151229014115</v>
       </c>
       <c r="F188">
-        <v>0.4263868477797243</v>
+        <v>0.1611183935853493</v>
       </c>
       <c r="G188">
-        <v>0.08963531457673102</v>
+        <v>0.1195961473809324</v>
       </c>
       <c r="H188">
-        <v>0.03713504386819957</v>
+        <v>0.1637638735949905</v>
       </c>
       <c r="I188">
-        <v>0.01694047954872757</v>
+        <v>0.06837779589193715</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -6425,31 +6425,31 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189">
-        <v>0.6516534882972487</v>
+        <v>0.9541595504328112</v>
       </c>
       <c r="B189">
-        <v>0.701059864036952</v>
+        <v>0.267110708655972</v>
       </c>
       <c r="C189">
-        <v>0.2014620133603562</v>
+        <v>0.3766112647265045</v>
       </c>
       <c r="D189">
-        <v>0.06982434814860228</v>
+        <v>0.02004944108896778</v>
       </c>
       <c r="E189">
-        <v>0.5520790538206469</v>
+        <v>0.4861298197916663</v>
       </c>
       <c r="F189">
-        <v>0.1306619475112169</v>
+        <v>0.04509193071966855</v>
       </c>
       <c r="G189">
-        <v>0.06789176824312537</v>
+        <v>0.1135885516896711</v>
       </c>
       <c r="H189">
-        <v>0.03195567739828859</v>
+        <v>0.02014872047975425</v>
       </c>
       <c r="I189">
-        <v>0.5903740191942117</v>
+        <v>0.09916959034554296</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -6457,31 +6457,31 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190">
-        <v>0.5510455969802863</v>
+        <v>0.9541595504328112</v>
       </c>
       <c r="B190">
-        <v>0.5155804690828129</v>
+        <v>0.267110708655972</v>
       </c>
       <c r="C190">
-        <v>0.6145861351437184</v>
+        <v>0.3766112647265045</v>
       </c>
       <c r="D190">
-        <v>0.2618682099621755</v>
+        <v>0.02004944108896778</v>
       </c>
       <c r="E190">
-        <v>0.3868347431108788</v>
+        <v>0.4006932004195217</v>
       </c>
       <c r="F190">
-        <v>0.6374649550848288</v>
+        <v>0.2142483899209506</v>
       </c>
       <c r="G190">
-        <v>0.3120402524521304</v>
+        <v>0.05857422946220293</v>
       </c>
       <c r="H190">
-        <v>0.0210844530195686</v>
+        <v>0.2006851783426188</v>
       </c>
       <c r="I190">
-        <v>0.5722992912783711</v>
+        <v>0.01261695530216755</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -6489,31 +6489,31 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191">
-        <v>0.2717298123344796</v>
+        <v>0.5712781233365365</v>
       </c>
       <c r="B191">
-        <v>0.5627161726128408</v>
+        <v>0.148709010177522</v>
       </c>
       <c r="C191">
-        <v>0.5196229757442152</v>
+        <v>0.5574160773491155</v>
       </c>
       <c r="D191">
-        <v>0.3825317186847701</v>
+        <v>0.0858034603197978</v>
       </c>
       <c r="E191">
-        <v>0.4344604324542652</v>
+        <v>0.4104453385368272</v>
       </c>
       <c r="F191">
-        <v>0.5439621152365386</v>
+        <v>0.2067841792826804</v>
       </c>
       <c r="G191">
-        <v>0.3523373291949996</v>
+        <v>0.09040869303615984</v>
       </c>
       <c r="H191">
-        <v>0.03827341228791834</v>
+        <v>0.162715527549859</v>
       </c>
       <c r="I191">
-        <v>0.4845052825137511</v>
+        <v>0.1142735425269507</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -6521,31 +6521,31 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192">
-        <v>0.05547164343686606</v>
+        <v>0.9893181340333518</v>
       </c>
       <c r="B192">
-        <v>0.2081458090018006</v>
+        <v>0.0517379351160614</v>
       </c>
       <c r="C192">
-        <v>0.3186804916888137</v>
+        <v>0.2767838903042928</v>
       </c>
       <c r="D192">
-        <v>0.1958924640551224</v>
+        <v>0.1039237883680918</v>
       </c>
       <c r="E192">
-        <v>0.3325385122781174</v>
+        <v>0.4489151229014115</v>
       </c>
       <c r="F192">
-        <v>0.5156945645929835</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G192">
-        <v>0.330873307926324</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H192">
-        <v>0.02490509525989802</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I192">
-        <v>0.198995956901249</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -6553,31 +6553,31 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193">
-        <v>0.2981985347465008</v>
+        <v>0.6883931697521676</v>
       </c>
       <c r="B193">
-        <v>0.5712227810839867</v>
+        <v>0.2148796402518531</v>
       </c>
       <c r="C193">
-        <v>0.6203894064446684</v>
+        <v>0.1948329011147953</v>
       </c>
       <c r="D193">
-        <v>0.449991781250406</v>
+        <v>0.1093631361288765</v>
       </c>
       <c r="E193">
-        <v>0.537285493837026</v>
+        <v>0.4047953009846466</v>
       </c>
       <c r="F193">
-        <v>0.2110628552837419</v>
+        <v>0.2633917207125932</v>
       </c>
       <c r="G193">
-        <v>0.2386235259558008</v>
+        <v>0.1325135808741219</v>
       </c>
       <c r="H193">
-        <v>0.02267619475371265</v>
+        <v>0.4612292463783765</v>
       </c>
       <c r="I193">
-        <v>0.1883175387354192</v>
+        <v>0.1280242644327991</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -6585,31 +6585,31 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194">
-        <v>0.03840258203877855</v>
+        <v>0.3770258785324855</v>
       </c>
       <c r="B194">
-        <v>0.7963396537235233</v>
+        <v>0.2713086442309993</v>
       </c>
       <c r="C194">
-        <v>0.6108546180429498</v>
+        <v>0.1128873335458398</v>
       </c>
       <c r="D194">
-        <v>0.1045230456795131</v>
+        <v>0.08267032763321802</v>
       </c>
       <c r="E194">
-        <v>0.3389236329575142</v>
+        <v>0.6071705864164586</v>
       </c>
       <c r="F194">
-        <v>0.4996369231659062</v>
+        <v>0.1201508068121839</v>
       </c>
       <c r="G194">
-        <v>0.4837897983803395</v>
+        <v>0.1633576714497612</v>
       </c>
       <c r="H194">
-        <v>0.00955688692572498</v>
+        <v>0.339218082753281</v>
       </c>
       <c r="I194">
-        <v>0.09600053438594189</v>
+        <v>0.05447030345113346</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -6617,31 +6617,31 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195">
-        <v>0.6600554541985963</v>
+        <v>0.5355216647497048</v>
       </c>
       <c r="B195">
-        <v>0.6708356024456728</v>
+        <v>0.05818452326696399</v>
       </c>
       <c r="C195">
-        <v>0.330558889554915</v>
+        <v>0.2180286892131554</v>
       </c>
       <c r="D195">
-        <v>0.3779781699822934</v>
+        <v>0.0353698657494973</v>
       </c>
       <c r="E195">
-        <v>0.1843671824693582</v>
+        <v>0.4321350919069383</v>
       </c>
       <c r="F195">
-        <v>0.5813707035481792</v>
+        <v>0.2852824499516942</v>
       </c>
       <c r="G195">
-        <v>0.08097212053847502</v>
+        <v>0.1507717599480183</v>
       </c>
       <c r="H195">
-        <v>0.0298225221871757</v>
+        <v>0.2608654175320869</v>
       </c>
       <c r="I195">
-        <v>0.2582051514367577</v>
+        <v>0.1096641192636275</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -6649,31 +6649,31 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196">
-        <v>0.6943848527194724</v>
+        <v>0.8857460485299027</v>
       </c>
       <c r="B196">
-        <v>0.6779673646339108</v>
+        <v>0.3061687662578491</v>
       </c>
       <c r="C196">
-        <v>0.4238274297533441</v>
+        <v>0.06204348235569523</v>
       </c>
       <c r="D196">
-        <v>0.3978806290349676</v>
+        <v>0.04058895575551413</v>
       </c>
       <c r="E196">
-        <v>0.4149433802035453</v>
+        <v>0.5862272202678925</v>
       </c>
       <c r="F196">
-        <v>0.6954481092233593</v>
+        <v>0.3698025337099236</v>
       </c>
       <c r="G196">
-        <v>0.3805452269096262</v>
+        <v>0.1195961473809324</v>
       </c>
       <c r="H196">
-        <v>0.003107464419603993</v>
+        <v>0.1637638735949905</v>
       </c>
       <c r="I196">
-        <v>0.1917722460713678</v>
+        <v>0.06837779589193715</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -6681,31 +6681,31 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197">
-        <v>0.6460040110342362</v>
+        <v>0.9915779445179059</v>
       </c>
       <c r="B197">
-        <v>0.7494597785431848</v>
+        <v>0.1883755290033807</v>
       </c>
       <c r="C197">
-        <v>0.1595484415468827</v>
+        <v>0.04364328622229507</v>
       </c>
       <c r="D197">
-        <v>0.03551197240151849</v>
+        <v>0.02401880613675444</v>
       </c>
       <c r="E197">
-        <v>0.6604812363607511</v>
+        <v>0.637341293062102</v>
       </c>
       <c r="F197">
-        <v>0.01747928459885095</v>
+        <v>0.09561936547683358</v>
       </c>
       <c r="G197">
-        <v>0.162372281471433</v>
+        <v>0.1325135808741219</v>
       </c>
       <c r="H197">
-        <v>0.02302153452550565</v>
+        <v>0.2180567803390174</v>
       </c>
       <c r="I197">
-        <v>0.2413500893790869</v>
+        <v>0.06860629728809486</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -6713,31 +6713,31 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198">
-        <v>0.3815395269358562</v>
+        <v>0.996582960298266</v>
       </c>
       <c r="B198">
-        <v>0.4335676148343895</v>
+        <v>0.001271932191750591</v>
       </c>
       <c r="C198">
-        <v>0.1579770412224654</v>
+        <v>0.5569814974553881</v>
       </c>
       <c r="D198">
-        <v>0.4465531091777668</v>
+        <v>0.05590960014190693</v>
       </c>
       <c r="E198">
-        <v>0.4879613699520752</v>
+        <v>0.6493898174169548</v>
       </c>
       <c r="F198">
-        <v>0.550745482546445</v>
+        <v>0.2417833585370766</v>
       </c>
       <c r="G198">
-        <v>0.08325780647120162</v>
+        <v>0.07134750300971732</v>
       </c>
       <c r="H198">
-        <v>0.02543341909698945</v>
+        <v>0.320881613264156</v>
       </c>
       <c r="I198">
-        <v>0.2863691591005764</v>
+        <v>0.07320900205245462</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -6745,31 +6745,31 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199">
-        <v>0.6281511087164954</v>
+        <v>0.9795924503538361</v>
       </c>
       <c r="B199">
-        <v>0.4937261520191718</v>
+        <v>0.1202106671712498</v>
       </c>
       <c r="C199">
-        <v>0.3119264668014843</v>
+        <v>0.4133192831100679</v>
       </c>
       <c r="D199">
-        <v>0.1717367743018341</v>
+        <v>0.04567876041262076</v>
       </c>
       <c r="E199">
-        <v>0.1872122725144671</v>
+        <v>0.4426315932364452</v>
       </c>
       <c r="F199">
-        <v>0.1625161929439136</v>
+        <v>0.4534512602479824</v>
       </c>
       <c r="G199">
-        <v>0.2021633087490116</v>
+        <v>0.1076655540072851</v>
       </c>
       <c r="H199">
-        <v>0.0009696196727081027</v>
+        <v>0.2172498756355623</v>
       </c>
       <c r="I199">
-        <v>0.28695709678731</v>
+        <v>0.03170452481892494</v>
       </c>
       <c r="J199">
         <v>0</v>
@@ -6777,31 +6777,31 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200">
-        <v>0.2090303760709089</v>
+        <v>0.9874935530054532</v>
       </c>
       <c r="B200">
-        <v>0.1598563809929441</v>
+        <v>0.270476508989746</v>
       </c>
       <c r="C200">
-        <v>0.1573651608739538</v>
+        <v>0.3416124847893207</v>
       </c>
       <c r="D200">
-        <v>0.005799694297184965</v>
+        <v>0.07201411895644128</v>
       </c>
       <c r="E200">
-        <v>0.6210981369730656</v>
+        <v>0.4140928990971477</v>
       </c>
       <c r="F200">
-        <v>0.6290876900418384</v>
+        <v>0.4972814869874851</v>
       </c>
       <c r="G200">
-        <v>0.400433071198375</v>
+        <v>0.09040869303615984</v>
       </c>
       <c r="H200">
-        <v>0.0550424610144245</v>
+        <v>0.162715527549859</v>
       </c>
       <c r="I200">
-        <v>0.5359796795975925</v>
+        <v>0.1142735425269507</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -6809,31 +6809,31 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201">
-        <v>0.3132689445233771</v>
+        <v>0.8243756101960044</v>
       </c>
       <c r="B201">
-        <v>0.3186524135780179</v>
+        <v>0.2945325112968867</v>
       </c>
       <c r="C201">
-        <v>0.4113380550257039</v>
+        <v>0.06773611391866795</v>
       </c>
       <c r="D201">
-        <v>0.1887775277833006</v>
+        <v>0.008681851169207166</v>
       </c>
       <c r="E201">
-        <v>0.2484298623519434</v>
+        <v>0.4975721467495162</v>
       </c>
       <c r="F201">
-        <v>0.268286910969173</v>
+        <v>0.5031279721474381</v>
       </c>
       <c r="G201">
-        <v>0.004681493046161944</v>
+        <v>0.05645348943630885</v>
       </c>
       <c r="H201">
-        <v>0.03078324433529141</v>
+        <v>0.4380762462448965</v>
       </c>
       <c r="I201">
-        <v>0.1358006890811476</v>
+        <v>0.119812588214651</v>
       </c>
       <c r="J201">
         <v>0</v>
